--- a/추가피처데이터/투자자별매매동향(수급)/294870.xlsx
+++ b/추가피처데이터/투자자별매매동향(수급)/294870.xlsx
@@ -1712,43 +1712,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1980,58 +1980,58 @@
         <v>18</v>
       </c>
       <c r="B6" s="5">
-        <v>1314</v>
+        <v>16602</v>
       </c>
       <c r="C6" s="7">
-        <v>1317</v>
+        <v>16614</v>
       </c>
       <c r="D6" s="9">
-        <v>-3</v>
+        <v>-12</v>
       </c>
       <c r="E6" s="11">
-        <v>2650</v>
+        <v>33536</v>
       </c>
       <c r="F6" s="13">
-        <v>3105</v>
+        <v>39365</v>
       </c>
       <c r="G6" s="15">
-        <v>-455</v>
+        <v>-5829</v>
       </c>
       <c r="H6" s="17">
-        <v>832</v>
+        <v>10524</v>
       </c>
       <c r="I6" s="19">
-        <v>686</v>
+        <v>8605</v>
       </c>
       <c r="J6" s="21">
-        <v>146</v>
+        <v>1919</v>
       </c>
       <c r="K6" s="23">
-        <v>442</v>
+        <v>5573</v>
       </c>
       <c r="L6" s="25">
-        <v>410</v>
+        <v>5165</v>
       </c>
       <c r="M6" s="27">
-        <v>31</v>
+        <v>409</v>
       </c>
       <c r="N6" s="29">
-        <v>26</v>
+        <v>338</v>
       </c>
       <c r="O6" s="31">
-        <v>30</v>
+        <v>371</v>
       </c>
       <c r="P6" s="33">
-        <v>-4</v>
+        <v>-33</v>
       </c>
       <c r="Q6" s="35">
-        <v>71</v>
+        <v>896</v>
       </c>
       <c r="R6" s="37">
-        <v>87</v>
+        <v>1089</v>
       </c>
       <c r="S6" s="39">
-        <v>-17</v>
+        <v>-193</v>
       </c>
       <c r="T6" s="41">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="Z6" s="53">
-        <v>279</v>
+        <v>3532</v>
       </c>
       <c r="AA6" s="55">
-        <v>154</v>
+        <v>1926</v>
       </c>
       <c r="AB6" s="57">
-        <v>125</v>
+        <v>1606</v>
       </c>
       <c r="AC6" s="59">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="AD6" s="61">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="AE6" s="63">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="AF6" s="65">
         <v>0</v>
@@ -2079,16 +2079,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="71">
-        <v>329</v>
+        <v>4142</v>
       </c>
       <c r="AJ6" s="73">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="AK6" s="75">
-        <v>312</v>
+        <v>3922</v>
       </c>
       <c r="AL6" s="77">
-        <v>5125</v>
+        <v>64804</v>
       </c>
     </row>
     <row r="7">
@@ -2096,58 +2096,58 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>1474</v>
+        <v>17380</v>
       </c>
       <c r="C7" s="7">
-        <v>1211</v>
+        <v>14313</v>
       </c>
       <c r="D7" s="9">
-        <v>263</v>
+        <v>3067</v>
       </c>
       <c r="E7" s="11">
-        <v>2445</v>
+        <v>28895</v>
       </c>
       <c r="F7" s="13">
-        <v>3389</v>
+        <v>40036</v>
       </c>
       <c r="G7" s="15">
-        <v>-944</v>
+        <v>-11142</v>
       </c>
       <c r="H7" s="17">
-        <v>1150</v>
+        <v>13611</v>
       </c>
       <c r="I7" s="19">
-        <v>897</v>
+        <v>10555</v>
       </c>
       <c r="J7" s="21">
-        <v>253</v>
+        <v>3055</v>
       </c>
       <c r="K7" s="23">
-        <v>451</v>
+        <v>5307</v>
       </c>
       <c r="L7" s="25">
-        <v>587</v>
+        <v>6924</v>
       </c>
       <c r="M7" s="27">
-        <v>-137</v>
+        <v>-1618</v>
       </c>
       <c r="N7" s="29">
-        <v>220</v>
+        <v>2588</v>
       </c>
       <c r="O7" s="31">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="P7" s="33">
-        <v>202</v>
+        <v>2388</v>
       </c>
       <c r="Q7" s="35">
-        <v>157</v>
+        <v>1875</v>
       </c>
       <c r="R7" s="37">
-        <v>30</v>
+        <v>347</v>
       </c>
       <c r="S7" s="39">
-        <v>127</v>
+        <v>1528</v>
       </c>
       <c r="T7" s="41">
         <v>0</v>
@@ -2168,22 +2168,22 @@
         <v>0</v>
       </c>
       <c r="Z7" s="53">
-        <v>269</v>
+        <v>3205</v>
       </c>
       <c r="AA7" s="55">
-        <v>221</v>
+        <v>2596</v>
       </c>
       <c r="AB7" s="57">
-        <v>48</v>
+        <v>609</v>
       </c>
       <c r="AC7" s="59">
-        <v>53</v>
+        <v>636</v>
       </c>
       <c r="AD7" s="61">
-        <v>41</v>
+        <v>488</v>
       </c>
       <c r="AE7" s="63">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="AF7" s="65">
         <v>0</v>
@@ -2195,16 +2195,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="71">
-        <v>452</v>
+        <v>5315</v>
       </c>
       <c r="AJ7" s="73">
-        <v>24</v>
+        <v>297</v>
       </c>
       <c r="AK7" s="75">
-        <v>428</v>
+        <v>5019</v>
       </c>
       <c r="AL7" s="77">
-        <v>5521</v>
+        <v>65201</v>
       </c>
     </row>
     <row r="8">
@@ -2212,58 +2212,58 @@
         <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>1925</v>
+        <v>21657</v>
       </c>
       <c r="C8" s="7">
-        <v>1954</v>
+        <v>21880</v>
       </c>
       <c r="D8" s="9">
-        <v>-29</v>
+        <v>-224</v>
       </c>
       <c r="E8" s="11">
-        <v>4421</v>
+        <v>49609</v>
       </c>
       <c r="F8" s="13">
-        <v>5218</v>
+        <v>58701</v>
       </c>
       <c r="G8" s="15">
-        <v>-798</v>
+        <v>-9092</v>
       </c>
       <c r="H8" s="17">
-        <v>751</v>
+        <v>8458</v>
       </c>
       <c r="I8" s="19">
-        <v>818</v>
+        <v>9093</v>
       </c>
       <c r="J8" s="21">
-        <v>-67</v>
+        <v>-635</v>
       </c>
       <c r="K8" s="23">
-        <v>633</v>
+        <v>7118</v>
       </c>
       <c r="L8" s="25">
-        <v>595</v>
+        <v>6642</v>
       </c>
       <c r="M8" s="27">
-        <v>38</v>
+        <v>476</v>
       </c>
       <c r="N8" s="29">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="O8" s="31">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="P8" s="33">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="35">
-        <v>47</v>
+        <v>535</v>
       </c>
       <c r="R8" s="37">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="S8" s="39">
-        <v>34</v>
+        <v>393</v>
       </c>
       <c r="T8" s="41">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="Z8" s="53">
-        <v>41</v>
+        <v>471</v>
       </c>
       <c r="AA8" s="55">
-        <v>163</v>
+        <v>1774</v>
       </c>
       <c r="AB8" s="57">
-        <v>-122</v>
+        <v>-1302</v>
       </c>
       <c r="AC8" s="59">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="AD8" s="61">
-        <v>40</v>
+        <v>456</v>
       </c>
       <c r="AE8" s="63">
-        <v>-34</v>
+        <v>-381</v>
       </c>
       <c r="AF8" s="65">
         <v>0</v>
@@ -2311,16 +2311,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="71">
-        <v>1066</v>
+        <v>11905</v>
       </c>
       <c r="AJ8" s="73">
-        <v>172</v>
+        <v>1955</v>
       </c>
       <c r="AK8" s="75">
-        <v>894</v>
+        <v>9950</v>
       </c>
       <c r="AL8" s="77">
-        <v>8163</v>
+        <v>91629</v>
       </c>
     </row>
     <row r="9">
@@ -2328,58 +2328,58 @@
         <v>21</v>
       </c>
       <c r="B9" s="5">
-        <v>973</v>
+        <v>10543</v>
       </c>
       <c r="C9" s="7">
-        <v>1052</v>
+        <v>11259</v>
       </c>
       <c r="D9" s="9">
-        <v>-78</v>
+        <v>-716</v>
       </c>
       <c r="E9" s="11">
-        <v>2644</v>
+        <v>28350</v>
       </c>
       <c r="F9" s="13">
-        <v>2494</v>
+        <v>26866</v>
       </c>
       <c r="G9" s="15">
-        <v>150</v>
+        <v>1484</v>
       </c>
       <c r="H9" s="17">
-        <v>427</v>
+        <v>4606</v>
       </c>
       <c r="I9" s="19">
-        <v>528</v>
+        <v>5667</v>
       </c>
       <c r="J9" s="21">
-        <v>-101</v>
+        <v>-1060</v>
       </c>
       <c r="K9" s="23">
-        <v>335</v>
+        <v>3606</v>
       </c>
       <c r="L9" s="25">
-        <v>452</v>
+        <v>4842</v>
       </c>
       <c r="M9" s="27">
-        <v>-117</v>
+        <v>-1236</v>
       </c>
       <c r="N9" s="29">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="O9" s="31">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="P9" s="33">
-        <v>-6</v>
+        <v>-62</v>
       </c>
       <c r="Q9" s="35">
-        <v>26</v>
+        <v>273</v>
       </c>
       <c r="R9" s="37">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="S9" s="39">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="T9" s="41">
         <v>0</v>
@@ -2400,22 +2400,22 @@
         <v>0</v>
       </c>
       <c r="Z9" s="53">
-        <v>58</v>
+        <v>633</v>
       </c>
       <c r="AA9" s="55">
-        <v>36</v>
+        <v>387</v>
       </c>
       <c r="AB9" s="57">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="AC9" s="59">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="AD9" s="61">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="AE9" s="63">
-        <v>-7</v>
+        <v>-77</v>
       </c>
       <c r="AF9" s="65">
         <v>0</v>
@@ -2427,16 +2427,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="71">
-        <v>66</v>
+        <v>694</v>
       </c>
       <c r="AJ9" s="73">
-        <v>37</v>
+        <v>401</v>
       </c>
       <c r="AK9" s="75">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="AL9" s="77">
-        <v>4111</v>
+        <v>44193</v>
       </c>
     </row>
     <row r="10">
@@ -2444,58 +2444,58 @@
         <v>22</v>
       </c>
       <c r="B10" s="5">
-        <v>1077</v>
+        <v>11312</v>
       </c>
       <c r="C10" s="7">
-        <v>823</v>
+        <v>8572</v>
       </c>
       <c r="D10" s="9">
-        <v>254</v>
+        <v>2740</v>
       </c>
       <c r="E10" s="11">
-        <v>2458</v>
+        <v>25681</v>
       </c>
       <c r="F10" s="13">
-        <v>2931</v>
+        <v>30808</v>
       </c>
       <c r="G10" s="15">
-        <v>-473</v>
+        <v>-5127</v>
       </c>
       <c r="H10" s="17">
-        <v>607</v>
+        <v>6404</v>
       </c>
       <c r="I10" s="19">
-        <v>393</v>
+        <v>4070</v>
       </c>
       <c r="J10" s="21">
-        <v>215</v>
+        <v>2334</v>
       </c>
       <c r="K10" s="23">
-        <v>329</v>
+        <v>3488</v>
       </c>
       <c r="L10" s="25">
-        <v>316</v>
+        <v>3299</v>
       </c>
       <c r="M10" s="27">
-        <v>13</v>
+        <v>189</v>
       </c>
       <c r="N10" s="29">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="O10" s="31">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="P10" s="33">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="Q10" s="35">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="R10" s="37">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="S10" s="39">
-        <v>-2</v>
+        <v>-15</v>
       </c>
       <c r="T10" s="41">
         <v>0</v>
@@ -2516,22 +2516,22 @@
         <v>0</v>
       </c>
       <c r="Z10" s="53">
-        <v>175</v>
+        <v>1876</v>
       </c>
       <c r="AA10" s="55">
-        <v>48</v>
+        <v>478</v>
       </c>
       <c r="AB10" s="57">
-        <v>127</v>
+        <v>1397</v>
       </c>
       <c r="AC10" s="59">
-        <v>89</v>
+        <v>886</v>
       </c>
       <c r="AD10" s="61">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="AE10" s="63">
-        <v>74</v>
+        <v>741</v>
       </c>
       <c r="AF10" s="65">
         <v>0</v>
@@ -2543,16 +2543,16 @@
         <v>0</v>
       </c>
       <c r="AI10" s="71">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="AJ10" s="73">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="AK10" s="75">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="AL10" s="77">
-        <v>4164</v>
+        <v>43626</v>
       </c>
     </row>
     <row r="11">
@@ -2560,58 +2560,58 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>1031</v>
+        <v>10918</v>
       </c>
       <c r="C11" s="7">
-        <v>1223</v>
+        <v>13019</v>
       </c>
       <c r="D11" s="9">
-        <v>-191</v>
+        <v>-2101</v>
       </c>
       <c r="E11" s="11">
-        <v>3063</v>
+        <v>32537</v>
       </c>
       <c r="F11" s="13">
-        <v>2367</v>
+        <v>25226</v>
       </c>
       <c r="G11" s="15">
-        <v>696</v>
+        <v>7311</v>
       </c>
       <c r="H11" s="17">
-        <v>523</v>
+        <v>5546</v>
       </c>
       <c r="I11" s="19">
-        <v>1024</v>
+        <v>10716</v>
       </c>
       <c r="J11" s="21">
-        <v>-501</v>
+        <v>-5170</v>
       </c>
       <c r="K11" s="23">
-        <v>389</v>
+        <v>4113</v>
       </c>
       <c r="L11" s="25">
-        <v>403</v>
+        <v>4267</v>
       </c>
       <c r="M11" s="27">
-        <v>-15</v>
+        <v>-154</v>
       </c>
       <c r="N11" s="29">
-        <v>37</v>
+        <v>388</v>
       </c>
       <c r="O11" s="31">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="P11" s="33">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="35">
-        <v>56</v>
+        <v>591</v>
       </c>
       <c r="R11" s="37">
-        <v>25</v>
+        <v>267</v>
       </c>
       <c r="S11" s="39">
-        <v>31</v>
+        <v>324</v>
       </c>
       <c r="T11" s="41">
         <v>0</v>
@@ -2632,22 +2632,22 @@
         <v>0</v>
       </c>
       <c r="Z11" s="53">
-        <v>33</v>
+        <v>368</v>
       </c>
       <c r="AA11" s="55">
-        <v>479</v>
+        <v>4987</v>
       </c>
       <c r="AB11" s="57">
-        <v>-446</v>
+        <v>-4619</v>
       </c>
       <c r="AC11" s="59">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="AD11" s="61">
-        <v>91</v>
+        <v>936</v>
       </c>
       <c r="AE11" s="63">
-        <v>-83</v>
+        <v>-850</v>
       </c>
       <c r="AF11" s="65">
         <v>0</v>
@@ -2659,16 +2659,16 @@
         <v>0</v>
       </c>
       <c r="AI11" s="71">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="AJ11" s="73">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="AK11" s="75">
-        <v>-4</v>
+        <v>-39</v>
       </c>
       <c r="AL11" s="77">
-        <v>4621</v>
+        <v>49035</v>
       </c>
     </row>
     <row r="12">
@@ -2676,58 +2676,58 @@
         <v>24</v>
       </c>
       <c r="B12" s="5">
-        <v>1418</v>
+        <v>15378</v>
       </c>
       <c r="C12" s="7">
-        <v>1158</v>
+        <v>12687</v>
       </c>
       <c r="D12" s="9">
-        <v>259</v>
+        <v>2691</v>
       </c>
       <c r="E12" s="11">
-        <v>2288</v>
+        <v>24993</v>
       </c>
       <c r="F12" s="13">
-        <v>2534</v>
+        <v>27566</v>
       </c>
       <c r="G12" s="15">
-        <v>-246</v>
+        <v>-2574</v>
       </c>
       <c r="H12" s="17">
-        <v>353</v>
+        <v>3848</v>
       </c>
       <c r="I12" s="19">
-        <v>361</v>
+        <v>3903</v>
       </c>
       <c r="J12" s="21">
-        <v>-8</v>
+        <v>-55</v>
       </c>
       <c r="K12" s="23">
-        <v>294</v>
+        <v>3182</v>
       </c>
       <c r="L12" s="25">
-        <v>300</v>
+        <v>3237</v>
       </c>
       <c r="M12" s="27">
-        <v>-7</v>
+        <v>-55</v>
       </c>
       <c r="N12" s="29">
-        <v>24</v>
+        <v>267</v>
       </c>
       <c r="O12" s="31">
-        <v>35</v>
+        <v>381</v>
       </c>
       <c r="P12" s="33">
-        <v>-11</v>
+        <v>-114</v>
       </c>
       <c r="Q12" s="35">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="R12" s="37">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="S12" s="39">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="T12" s="41">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         <v>0</v>
       </c>
       <c r="Z12" s="53">
+        <v>242</v>
+      </c>
+      <c r="AA12" s="55">
+        <v>142</v>
+      </c>
+      <c r="AB12" s="57">
+        <v>100</v>
+      </c>
+      <c r="AC12" s="59">
         <v>22</v>
       </c>
-      <c r="AA12" s="55">
-        <v>13</v>
-      </c>
-      <c r="AB12" s="57">
-        <v>9</v>
-      </c>
-      <c r="AC12" s="59">
-        <v>2</v>
-      </c>
       <c r="AD12" s="61">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="AE12" s="63">
-        <v>-4</v>
+        <v>-47</v>
       </c>
       <c r="AF12" s="65">
         <v>0</v>
@@ -2775,16 +2775,16 @@
         <v>0</v>
       </c>
       <c r="AI12" s="71">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="AJ12" s="73">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="AK12" s="75">
-        <v>-5</v>
+        <v>-62</v>
       </c>
       <c r="AL12" s="77">
-        <v>4066</v>
+        <v>44296</v>
       </c>
     </row>
     <row r="13">
@@ -2792,94 +2792,94 @@
         <v>25</v>
       </c>
       <c r="B13" s="5">
-        <v>1122</v>
+        <v>11692</v>
       </c>
       <c r="C13" s="7">
-        <v>979</v>
+        <v>10120</v>
       </c>
       <c r="D13" s="9">
-        <v>143</v>
+        <v>1572</v>
       </c>
       <c r="E13" s="11">
-        <v>2277</v>
+        <v>23380</v>
       </c>
       <c r="F13" s="13">
-        <v>2374</v>
+        <v>24479</v>
       </c>
       <c r="G13" s="15">
-        <v>-97</v>
+        <v>-1099</v>
       </c>
       <c r="H13" s="17">
-        <v>318</v>
+        <v>3271</v>
       </c>
       <c r="I13" s="19">
-        <v>361</v>
+        <v>3719</v>
       </c>
       <c r="J13" s="21">
-        <v>-43</v>
+        <v>-448</v>
       </c>
       <c r="K13" s="23">
-        <v>306</v>
+        <v>3145</v>
       </c>
       <c r="L13" s="25">
-        <v>336</v>
+        <v>3460</v>
       </c>
       <c r="M13" s="27">
-        <v>-30</v>
+        <v>-314</v>
       </c>
       <c r="N13" s="29">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="O13" s="31">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="P13" s="33">
-        <v>-2</v>
+        <v>-22</v>
       </c>
       <c r="Q13" s="35">
+        <v>52</v>
+      </c>
+      <c r="R13" s="37">
+        <v>40</v>
+      </c>
+      <c r="S13" s="39">
+        <v>12</v>
+      </c>
+      <c r="T13" s="41">
+        <v>0</v>
+      </c>
+      <c r="U13" s="43">
+        <v>0</v>
+      </c>
+      <c r="V13" s="45">
+        <v>0</v>
+      </c>
+      <c r="W13" s="47">
+        <v>0</v>
+      </c>
+      <c r="X13" s="49">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="51">
+        <v>-3</v>
+      </c>
+      <c r="Z13" s="53">
+        <v>31</v>
+      </c>
+      <c r="AA13" s="55">
+        <v>49</v>
+      </c>
+      <c r="AB13" s="57">
+        <v>-18</v>
+      </c>
+      <c r="AC13" s="59">
         <v>5</v>
       </c>
-      <c r="R13" s="37">
-        <v>4</v>
-      </c>
-      <c r="S13" s="39">
-        <v>1</v>
-      </c>
-      <c r="T13" s="41">
-        <v>0</v>
-      </c>
-      <c r="U13" s="43">
-        <v>0</v>
-      </c>
-      <c r="V13" s="45">
-        <v>0</v>
-      </c>
-      <c r="W13" s="47">
-        <v>0</v>
-      </c>
-      <c r="X13" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="53">
-        <v>3</v>
-      </c>
-      <c r="AA13" s="55">
-        <v>5</v>
-      </c>
-      <c r="AB13" s="57">
-        <v>-2</v>
-      </c>
-      <c r="AC13" s="59">
-        <v>0</v>
-      </c>
       <c r="AD13" s="61">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="AE13" s="63">
-        <v>-10</v>
+        <v>-103</v>
       </c>
       <c r="AF13" s="65">
         <v>0</v>
@@ -2891,16 +2891,16 @@
         <v>0</v>
       </c>
       <c r="AI13" s="71">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="AJ13" s="73">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="AK13" s="75">
-        <v>-2</v>
+        <v>-25</v>
       </c>
       <c r="AL13" s="77">
-        <v>3729</v>
+        <v>38470</v>
       </c>
     </row>
     <row r="14">
@@ -2908,94 +2908,94 @@
         <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>2008</v>
+        <v>23366</v>
       </c>
       <c r="C14" s="7">
-        <v>1957</v>
+        <v>22825</v>
       </c>
       <c r="D14" s="9">
-        <v>51</v>
+        <v>541</v>
       </c>
       <c r="E14" s="11">
-        <v>2449</v>
+        <v>28204</v>
       </c>
       <c r="F14" s="13">
-        <v>2611</v>
+        <v>29861</v>
       </c>
       <c r="G14" s="15">
-        <v>-161</v>
+        <v>-1657</v>
       </c>
       <c r="H14" s="17">
-        <v>357</v>
+        <v>4055</v>
       </c>
       <c r="I14" s="19">
-        <v>310</v>
+        <v>3609</v>
       </c>
       <c r="J14" s="21">
-        <v>47</v>
+        <v>447</v>
       </c>
       <c r="K14" s="23">
-        <v>309</v>
+        <v>3511</v>
       </c>
       <c r="L14" s="25">
-        <v>244</v>
+        <v>2820</v>
       </c>
       <c r="M14" s="27">
-        <v>65</v>
+        <v>691</v>
       </c>
       <c r="N14" s="29">
+        <v>288</v>
+      </c>
+      <c r="O14" s="31">
+        <v>80</v>
+      </c>
+      <c r="P14" s="33">
+        <v>208</v>
+      </c>
+      <c r="Q14" s="35">
+        <v>113</v>
+      </c>
+      <c r="R14" s="37">
+        <v>216</v>
+      </c>
+      <c r="S14" s="39">
+        <v>-103</v>
+      </c>
+      <c r="T14" s="41">
+        <v>0</v>
+      </c>
+      <c r="U14" s="43">
+        <v>0</v>
+      </c>
+      <c r="V14" s="45">
+        <v>0</v>
+      </c>
+      <c r="W14" s="47">
+        <v>0</v>
+      </c>
+      <c r="X14" s="49">
         <v>26</v>
       </c>
-      <c r="O14" s="31">
-        <v>7</v>
-      </c>
-      <c r="P14" s="33">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="35">
-        <v>10</v>
-      </c>
-      <c r="R14" s="37">
-        <v>18</v>
-      </c>
-      <c r="S14" s="39">
-        <v>-8</v>
-      </c>
-      <c r="T14" s="41">
-        <v>0</v>
-      </c>
-      <c r="U14" s="43">
-        <v>0</v>
-      </c>
-      <c r="V14" s="45">
-        <v>0</v>
-      </c>
-      <c r="W14" s="47">
-        <v>0</v>
-      </c>
-      <c r="X14" s="49">
-        <v>2</v>
-      </c>
       <c r="Y14" s="51">
-        <v>-2</v>
+        <v>-26</v>
       </c>
       <c r="Z14" s="53">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="AA14" s="55">
-        <v>21</v>
+        <v>252</v>
       </c>
       <c r="AB14" s="57">
-        <v>-12</v>
+        <v>-151</v>
       </c>
       <c r="AC14" s="59">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="AD14" s="61">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="AE14" s="63">
-        <v>-14</v>
+        <v>-173</v>
       </c>
       <c r="AF14" s="65">
         <v>0</v>
@@ -3007,16 +3007,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="71">
-        <v>82</v>
+        <v>883</v>
       </c>
       <c r="AJ14" s="73">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="AK14" s="75">
-        <v>63</v>
+        <v>670</v>
       </c>
       <c r="AL14" s="77">
-        <v>4897</v>
+        <v>56509</v>
       </c>
     </row>
     <row r="15">
@@ -3024,58 +3024,58 @@
         <v>27</v>
       </c>
       <c r="B15" s="5">
-        <v>1344</v>
+        <v>17002</v>
       </c>
       <c r="C15" s="7">
-        <v>1998</v>
+        <v>25384</v>
       </c>
       <c r="D15" s="9">
-        <v>-654</v>
+        <v>-8382</v>
       </c>
       <c r="E15" s="11">
-        <v>4422</v>
+        <v>56270</v>
       </c>
       <c r="F15" s="13">
-        <v>3898</v>
+        <v>49579</v>
       </c>
       <c r="G15" s="15">
-        <v>524</v>
+        <v>6691</v>
       </c>
       <c r="H15" s="17">
-        <v>533</v>
+        <v>6735</v>
       </c>
       <c r="I15" s="19">
-        <v>426</v>
+        <v>5344</v>
       </c>
       <c r="J15" s="21">
-        <v>106</v>
+        <v>1390</v>
       </c>
       <c r="K15" s="23">
-        <v>231</v>
+        <v>2935</v>
       </c>
       <c r="L15" s="25">
-        <v>284</v>
+        <v>3560</v>
       </c>
       <c r="M15" s="27">
-        <v>-53</v>
+        <v>-625</v>
       </c>
       <c r="N15" s="29">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="O15" s="31">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="P15" s="33">
-        <v>-19</v>
+        <v>-239</v>
       </c>
       <c r="Q15" s="35">
-        <v>93</v>
+        <v>1172</v>
       </c>
       <c r="R15" s="37">
-        <v>82</v>
+        <v>1030</v>
       </c>
       <c r="S15" s="39">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="T15" s="41">
         <v>0</v>
@@ -3096,22 +3096,22 @@
         <v>0</v>
       </c>
       <c r="Z15" s="53">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="AA15" s="55">
-        <v>27</v>
+        <v>334</v>
       </c>
       <c r="AB15" s="57">
-        <v>-18</v>
+        <v>-226</v>
       </c>
       <c r="AC15" s="59">
-        <v>199</v>
+        <v>2495</v>
       </c>
       <c r="AD15" s="61">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="AE15" s="63">
-        <v>186</v>
+        <v>2338</v>
       </c>
       <c r="AF15" s="65">
         <v>0</v>
@@ -3123,16 +3123,16 @@
         <v>0</v>
       </c>
       <c r="AI15" s="71">
-        <v>48</v>
+        <v>617</v>
       </c>
       <c r="AJ15" s="73">
-        <v>25</v>
+        <v>316</v>
       </c>
       <c r="AK15" s="75">
-        <v>24</v>
+        <v>301</v>
       </c>
       <c r="AL15" s="77">
-        <v>6347</v>
+        <v>80623</v>
       </c>
     </row>
     <row r="16">
@@ -3140,58 +3140,58 @@
         <v>28</v>
       </c>
       <c r="B16" s="5">
-        <v>1738</v>
+        <v>19782</v>
       </c>
       <c r="C16" s="7">
-        <v>1748</v>
+        <v>19835</v>
       </c>
       <c r="D16" s="9">
-        <v>-10</v>
+        <v>-52</v>
       </c>
       <c r="E16" s="11">
-        <v>3433</v>
+        <v>38927</v>
       </c>
       <c r="F16" s="13">
-        <v>3249</v>
+        <v>37104</v>
       </c>
       <c r="G16" s="15">
-        <v>184</v>
+        <v>1823</v>
       </c>
       <c r="H16" s="17">
-        <v>348</v>
+        <v>4045</v>
       </c>
       <c r="I16" s="19">
-        <v>536</v>
+        <v>5973</v>
       </c>
       <c r="J16" s="21">
-        <v>-188</v>
+        <v>-1929</v>
       </c>
       <c r="K16" s="23">
-        <v>263</v>
+        <v>3011</v>
       </c>
       <c r="L16" s="25">
-        <v>299</v>
+        <v>3342</v>
       </c>
       <c r="M16" s="27">
-        <v>-37</v>
+        <v>-331</v>
       </c>
       <c r="N16" s="29">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="O16" s="31">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="P16" s="33">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="35">
-        <v>62</v>
+        <v>749</v>
       </c>
       <c r="R16" s="37">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="S16" s="39">
-        <v>55</v>
+        <v>670</v>
       </c>
       <c r="T16" s="41">
         <v>0</v>
@@ -3212,22 +3212,22 @@
         <v>0</v>
       </c>
       <c r="Z16" s="53">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AA16" s="55">
-        <v>218</v>
+        <v>2421</v>
       </c>
       <c r="AB16" s="57">
-        <v>-216</v>
+        <v>-2402</v>
       </c>
       <c r="AC16" s="59">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="AD16" s="61">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="AE16" s="63">
-        <v>-2</v>
+        <v>-20</v>
       </c>
       <c r="AF16" s="65">
         <v>0</v>
@@ -3239,16 +3239,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="71">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="AJ16" s="73">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="AK16" s="75">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="AL16" s="77">
-        <v>5540</v>
+        <v>62994</v>
       </c>
     </row>
     <row r="17">
@@ -3256,94 +3256,94 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>2159</v>
+        <v>25543</v>
       </c>
       <c r="C17" s="7">
-        <v>3357</v>
+        <v>40642</v>
       </c>
       <c r="D17" s="9">
-        <v>-1198</v>
+        <v>-15099</v>
       </c>
       <c r="E17" s="11">
-        <v>5639</v>
+        <v>68137</v>
       </c>
       <c r="F17" s="13">
-        <v>4433</v>
+        <v>52567</v>
       </c>
       <c r="G17" s="15">
-        <v>1206</v>
+        <v>15570</v>
       </c>
       <c r="H17" s="17">
-        <v>528</v>
+        <v>6307</v>
       </c>
       <c r="I17" s="19">
-        <v>577</v>
+        <v>7230</v>
       </c>
       <c r="J17" s="21">
-        <v>-49</v>
+        <v>-922</v>
       </c>
       <c r="K17" s="23">
-        <v>441</v>
+        <v>5225</v>
       </c>
       <c r="L17" s="25">
-        <v>341</v>
+        <v>4255</v>
       </c>
       <c r="M17" s="27">
+        <v>969</v>
+      </c>
+      <c r="N17" s="29">
+        <v>373</v>
+      </c>
+      <c r="O17" s="31">
+        <v>227</v>
+      </c>
+      <c r="P17" s="33">
+        <v>146</v>
+      </c>
+      <c r="Q17" s="35">
+        <v>440</v>
+      </c>
+      <c r="R17" s="37">
+        <v>1343</v>
+      </c>
+      <c r="S17" s="39">
+        <v>-903</v>
+      </c>
+      <c r="T17" s="41">
+        <v>0</v>
+      </c>
+      <c r="U17" s="43">
+        <v>0</v>
+      </c>
+      <c r="V17" s="45">
+        <v>0</v>
+      </c>
+      <c r="W17" s="47">
+        <v>0</v>
+      </c>
+      <c r="X17" s="49">
+        <v>46</v>
+      </c>
+      <c r="Y17" s="51">
+        <v>-46</v>
+      </c>
+      <c r="Z17" s="53">
+        <v>170</v>
+      </c>
+      <c r="AA17" s="55">
+        <v>1251</v>
+      </c>
+      <c r="AB17" s="57">
+        <v>-1080</v>
+      </c>
+      <c r="AC17" s="59">
         <v>100</v>
       </c>
-      <c r="N17" s="29">
-        <v>31</v>
-      </c>
-      <c r="O17" s="31">
-        <v>18</v>
-      </c>
-      <c r="P17" s="33">
-        <v>13</v>
-      </c>
-      <c r="Q17" s="35">
-        <v>34</v>
-      </c>
-      <c r="R17" s="37">
-        <v>102</v>
-      </c>
-      <c r="S17" s="39">
-        <v>-68</v>
-      </c>
-      <c r="T17" s="41">
-        <v>0</v>
-      </c>
-      <c r="U17" s="43">
-        <v>0</v>
-      </c>
-      <c r="V17" s="45">
-        <v>0</v>
-      </c>
-      <c r="W17" s="47">
-        <v>0</v>
-      </c>
-      <c r="X17" s="49">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="51">
-        <v>-4</v>
-      </c>
-      <c r="Z17" s="53">
-        <v>13</v>
-      </c>
-      <c r="AA17" s="55">
-        <v>103</v>
-      </c>
-      <c r="AB17" s="57">
-        <v>-90</v>
-      </c>
-      <c r="AC17" s="59">
-        <v>9</v>
-      </c>
       <c r="AD17" s="61">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="AE17" s="63">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AF17" s="65">
         <v>0</v>
@@ -3355,16 +3355,16 @@
         <v>0</v>
       </c>
       <c r="AI17" s="71">
-        <v>91</v>
+        <v>1064</v>
       </c>
       <c r="AJ17" s="73">
-        <v>51</v>
+        <v>613</v>
       </c>
       <c r="AK17" s="75">
-        <v>40</v>
+        <v>451</v>
       </c>
       <c r="AL17" s="77">
-        <v>8418</v>
+        <v>101052</v>
       </c>
     </row>
     <row r="18">
@@ -3372,58 +3372,58 @@
         <v>30</v>
       </c>
       <c r="B18" s="5">
-        <v>2022</v>
+        <v>28660</v>
       </c>
       <c r="C18" s="7">
-        <v>3224</v>
+        <v>45533</v>
       </c>
       <c r="D18" s="9">
-        <v>-1202</v>
+        <v>-16873</v>
       </c>
       <c r="E18" s="11">
-        <v>7028</v>
+        <v>100084</v>
       </c>
       <c r="F18" s="13">
-        <v>5951</v>
+        <v>85089</v>
       </c>
       <c r="G18" s="15">
-        <v>1077</v>
+        <v>14996</v>
       </c>
       <c r="H18" s="17">
-        <v>730</v>
+        <v>10387</v>
       </c>
       <c r="I18" s="19">
-        <v>630</v>
+        <v>8858</v>
       </c>
       <c r="J18" s="21">
-        <v>100</v>
+        <v>1529</v>
       </c>
       <c r="K18" s="23">
-        <v>562</v>
+        <v>7983</v>
       </c>
       <c r="L18" s="25">
-        <v>461</v>
+        <v>6527</v>
       </c>
       <c r="M18" s="27">
-        <v>101</v>
+        <v>1456</v>
       </c>
       <c r="N18" s="29">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="O18" s="31">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="P18" s="33">
-        <v>-10</v>
+        <v>-130</v>
       </c>
       <c r="Q18" s="35">
-        <v>19</v>
+        <v>277</v>
       </c>
       <c r="R18" s="37">
-        <v>19</v>
+        <v>264</v>
       </c>
       <c r="S18" s="39">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T18" s="41">
         <v>0</v>
@@ -3438,28 +3438,28 @@
         <v>0</v>
       </c>
       <c r="X18" s="49">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="Y18" s="51">
-        <v>-2</v>
+        <v>-28</v>
       </c>
       <c r="Z18" s="53">
-        <v>111</v>
+        <v>1582</v>
       </c>
       <c r="AA18" s="55">
-        <v>49</v>
+        <v>662</v>
       </c>
       <c r="AB18" s="57">
-        <v>62</v>
+        <v>921</v>
       </c>
       <c r="AC18" s="59">
-        <v>31</v>
+        <v>436</v>
       </c>
       <c r="AD18" s="61">
-        <v>82</v>
+        <v>1138</v>
       </c>
       <c r="AE18" s="63">
-        <v>-52</v>
+        <v>-703</v>
       </c>
       <c r="AF18" s="65">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="71">
-        <v>82</v>
+        <v>1124</v>
       </c>
       <c r="AJ18" s="73">
-        <v>56</v>
+        <v>775</v>
       </c>
       <c r="AK18" s="75">
-        <v>25</v>
+        <v>349</v>
       </c>
       <c r="AL18" s="77">
-        <v>9862</v>
+        <v>140256</v>
       </c>
     </row>
     <row r="19">
@@ -3488,58 +3488,58 @@
         <v>31</v>
       </c>
       <c r="B19" s="5">
-        <v>2903</v>
+        <v>43582</v>
       </c>
       <c r="C19" s="7">
-        <v>4148</v>
+        <v>62145</v>
       </c>
       <c r="D19" s="9">
-        <v>-1245</v>
+        <v>-18563</v>
       </c>
       <c r="E19" s="11">
-        <v>10568</v>
+        <v>158648</v>
       </c>
       <c r="F19" s="13">
-        <v>9277</v>
+        <v>139268</v>
       </c>
       <c r="G19" s="15">
-        <v>1291</v>
+        <v>19380</v>
       </c>
       <c r="H19" s="17">
-        <v>1076</v>
+        <v>16068</v>
       </c>
       <c r="I19" s="19">
-        <v>1134</v>
+        <v>17050</v>
       </c>
       <c r="J19" s="21">
-        <v>-58</v>
+        <v>-982</v>
       </c>
       <c r="K19" s="23">
-        <v>887</v>
+        <v>13238</v>
       </c>
       <c r="L19" s="25">
-        <v>808</v>
+        <v>12171</v>
       </c>
       <c r="M19" s="27">
-        <v>78</v>
+        <v>1067</v>
       </c>
       <c r="N19" s="29">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="O19" s="31">
-        <v>28</v>
+        <v>415</v>
       </c>
       <c r="P19" s="33">
-        <v>-13</v>
+        <v>-203</v>
       </c>
       <c r="Q19" s="35">
-        <v>20</v>
+        <v>294</v>
       </c>
       <c r="R19" s="37">
-        <v>78</v>
+        <v>1174</v>
       </c>
       <c r="S19" s="39">
-        <v>-58</v>
+        <v>-880</v>
       </c>
       <c r="T19" s="41">
         <v>0</v>
@@ -3554,28 +3554,28 @@
         <v>0</v>
       </c>
       <c r="X19" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z19" s="53">
-        <v>100</v>
+        <v>1496</v>
       </c>
       <c r="AA19" s="55">
-        <v>96</v>
+        <v>1429</v>
       </c>
       <c r="AB19" s="57">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="AC19" s="59">
-        <v>55</v>
+        <v>828</v>
       </c>
       <c r="AD19" s="61">
-        <v>124</v>
+        <v>1859</v>
       </c>
       <c r="AE19" s="63">
-        <v>-69</v>
+        <v>-1032</v>
       </c>
       <c r="AF19" s="65">
         <v>0</v>
@@ -3587,16 +3587,16 @@
         <v>0</v>
       </c>
       <c r="AI19" s="71">
-        <v>85</v>
+        <v>1262</v>
       </c>
       <c r="AJ19" s="73">
-        <v>73</v>
+        <v>1096</v>
       </c>
       <c r="AK19" s="75">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="AL19" s="77">
-        <v>14632</v>
+        <v>219559</v>
       </c>
     </row>
     <row r="20">
@@ -3604,94 +3604,94 @@
         <v>32</v>
       </c>
       <c r="B20" s="5">
-        <v>7295</v>
+        <v>121366</v>
       </c>
       <c r="C20" s="7">
-        <v>7665</v>
+        <v>127964</v>
       </c>
       <c r="D20" s="9">
-        <v>-370</v>
+        <v>-6598</v>
       </c>
       <c r="E20" s="11">
-        <v>25348</v>
+        <v>422003</v>
       </c>
       <c r="F20" s="13">
-        <v>24597</v>
+        <v>410374</v>
       </c>
       <c r="G20" s="15">
-        <v>751</v>
+        <v>11630</v>
       </c>
       <c r="H20" s="17">
-        <v>2572</v>
+        <v>43416</v>
       </c>
       <c r="I20" s="19">
-        <v>2951</v>
+        <v>48472</v>
       </c>
       <c r="J20" s="21">
-        <v>-380</v>
+        <v>-5056</v>
       </c>
       <c r="K20" s="23">
-        <v>1867</v>
+        <v>31521</v>
       </c>
       <c r="L20" s="25">
-        <v>1721</v>
+        <v>28664</v>
       </c>
       <c r="M20" s="27">
-        <v>147</v>
+        <v>2857</v>
       </c>
       <c r="N20" s="29">
-        <v>41</v>
+        <v>688</v>
       </c>
       <c r="O20" s="31">
-        <v>154</v>
+        <v>2493</v>
       </c>
       <c r="P20" s="33">
-        <v>-113</v>
+        <v>-1805</v>
       </c>
       <c r="Q20" s="35">
-        <v>48</v>
+        <v>812</v>
       </c>
       <c r="R20" s="37">
-        <v>224</v>
+        <v>3561</v>
       </c>
       <c r="S20" s="39">
-        <v>-176</v>
+        <v>-2750</v>
       </c>
       <c r="T20" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="43">
         <v>0</v>
       </c>
       <c r="V20" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="47">
         <v>0</v>
       </c>
       <c r="X20" s="49">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="Y20" s="51">
-        <v>-4</v>
+        <v>-59</v>
       </c>
       <c r="Z20" s="53">
-        <v>458</v>
+        <v>7834</v>
       </c>
       <c r="AA20" s="55">
-        <v>783</v>
+        <v>12574</v>
       </c>
       <c r="AB20" s="57">
-        <v>-326</v>
+        <v>-4740</v>
       </c>
       <c r="AC20" s="59">
-        <v>158</v>
+        <v>2560</v>
       </c>
       <c r="AD20" s="61">
-        <v>66</v>
+        <v>1121</v>
       </c>
       <c r="AE20" s="63">
-        <v>92</v>
+        <v>1439</v>
       </c>
       <c r="AF20" s="65">
         <v>0</v>
@@ -3703,16 +3703,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="71">
-        <v>215</v>
+        <v>3648</v>
       </c>
       <c r="AJ20" s="73">
-        <v>217</v>
+        <v>3624</v>
       </c>
       <c r="AK20" s="75">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="AL20" s="77">
-        <v>35430</v>
+        <v>590434</v>
       </c>
     </row>
     <row r="21">
@@ -3720,94 +3720,94 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>4516</v>
+        <v>70265</v>
       </c>
       <c r="C21" s="7">
-        <v>4997</v>
+        <v>78086</v>
       </c>
       <c r="D21" s="9">
-        <v>-481</v>
+        <v>-7821</v>
       </c>
       <c r="E21" s="11">
-        <v>13077</v>
+        <v>204665</v>
       </c>
       <c r="F21" s="13">
-        <v>12556</v>
+        <v>196100</v>
       </c>
       <c r="G21" s="15">
-        <v>521</v>
+        <v>8566</v>
       </c>
       <c r="H21" s="17">
-        <v>1846</v>
+        <v>28869</v>
       </c>
       <c r="I21" s="19">
-        <v>1920</v>
+        <v>30159</v>
       </c>
       <c r="J21" s="21">
-        <v>-75</v>
+        <v>-1289</v>
       </c>
       <c r="K21" s="23">
-        <v>1297</v>
+        <v>20240</v>
       </c>
       <c r="L21" s="25">
-        <v>1251</v>
+        <v>19712</v>
       </c>
       <c r="M21" s="27">
-        <v>46</v>
+        <v>528</v>
       </c>
       <c r="N21" s="29">
-        <v>64</v>
+        <v>996</v>
       </c>
       <c r="O21" s="31">
+        <v>191</v>
+      </c>
+      <c r="P21" s="33">
+        <v>804</v>
+      </c>
+      <c r="Q21" s="35">
+        <v>1120</v>
+      </c>
+      <c r="R21" s="37">
+        <v>1111</v>
+      </c>
+      <c r="S21" s="39">
+        <v>10</v>
+      </c>
+      <c r="T21" s="41">
+        <v>0</v>
+      </c>
+      <c r="U21" s="43">
+        <v>0</v>
+      </c>
+      <c r="V21" s="45">
+        <v>0</v>
+      </c>
+      <c r="W21" s="47">
+        <v>0</v>
+      </c>
+      <c r="X21" s="49">
         <v>12</v>
       </c>
-      <c r="P21" s="33">
-        <v>52</v>
-      </c>
-      <c r="Q21" s="35">
-        <v>71</v>
-      </c>
-      <c r="R21" s="37">
-        <v>70</v>
-      </c>
-      <c r="S21" s="39">
-        <v>1</v>
-      </c>
-      <c r="T21" s="41">
-        <v>0</v>
-      </c>
-      <c r="U21" s="43">
-        <v>0</v>
-      </c>
-      <c r="V21" s="45">
-        <v>0</v>
-      </c>
-      <c r="W21" s="47">
-        <v>0</v>
-      </c>
-      <c r="X21" s="49">
-        <v>1</v>
-      </c>
       <c r="Y21" s="51">
-        <v>-1</v>
+        <v>-12</v>
       </c>
       <c r="Z21" s="53">
-        <v>262</v>
+        <v>4098</v>
       </c>
       <c r="AA21" s="55">
-        <v>363</v>
+        <v>5695</v>
       </c>
       <c r="AB21" s="57">
-        <v>-101</v>
+        <v>-1597</v>
       </c>
       <c r="AC21" s="59">
-        <v>151</v>
+        <v>2415</v>
       </c>
       <c r="AD21" s="61">
-        <v>222</v>
+        <v>3436</v>
       </c>
       <c r="AE21" s="63">
-        <v>-72</v>
+        <v>-1022</v>
       </c>
       <c r="AF21" s="65">
         <v>0</v>
@@ -3819,16 +3819,16 @@
         <v>0</v>
       </c>
       <c r="AI21" s="71">
-        <v>122</v>
+        <v>1912</v>
       </c>
       <c r="AJ21" s="73">
-        <v>87</v>
+        <v>1367</v>
       </c>
       <c r="AK21" s="75">
-        <v>35</v>
+        <v>545</v>
       </c>
       <c r="AL21" s="77">
-        <v>19561</v>
+        <v>305712</v>
       </c>
     </row>
     <row r="22">
@@ -3836,94 +3836,94 @@
         <v>34</v>
       </c>
       <c r="B22" s="5">
-        <v>10967</v>
+        <v>183304</v>
       </c>
       <c r="C22" s="7">
-        <v>8893</v>
+        <v>156617</v>
       </c>
       <c r="D22" s="9">
-        <v>2074</v>
+        <v>26688</v>
       </c>
       <c r="E22" s="11">
-        <v>53374</v>
+        <v>957295</v>
       </c>
       <c r="F22" s="13">
-        <v>50361</v>
+        <v>895097</v>
       </c>
       <c r="G22" s="15">
-        <v>3013</v>
+        <v>62198</v>
       </c>
       <c r="H22" s="17">
-        <v>5167</v>
+        <v>97161</v>
       </c>
       <c r="I22" s="19">
-        <v>11548</v>
+        <v>210682</v>
       </c>
       <c r="J22" s="21">
-        <v>-6381</v>
+        <v>-113520</v>
       </c>
       <c r="K22" s="23">
-        <v>2201</v>
+        <v>38362</v>
       </c>
       <c r="L22" s="25">
-        <v>2867</v>
+        <v>52273</v>
       </c>
       <c r="M22" s="27">
-        <v>-666</v>
+        <v>-13911</v>
       </c>
       <c r="N22" s="29">
-        <v>278</v>
+        <v>5619</v>
       </c>
       <c r="O22" s="31">
-        <v>597</v>
+        <v>10803</v>
       </c>
       <c r="P22" s="33">
-        <v>-319</v>
+        <v>-5184</v>
       </c>
       <c r="Q22" s="35">
-        <v>842</v>
+        <v>17590</v>
       </c>
       <c r="R22" s="37">
-        <v>1797</v>
+        <v>32556</v>
       </c>
       <c r="S22" s="39">
-        <v>-955</v>
+        <v>-14966</v>
       </c>
       <c r="T22" s="41">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="U22" s="43">
-        <v>246</v>
+        <v>5392</v>
       </c>
       <c r="V22" s="45">
-        <v>-245</v>
+        <v>-5379</v>
       </c>
       <c r="W22" s="47">
-        <v>14</v>
+        <v>287</v>
       </c>
       <c r="X22" s="49">
-        <v>72</v>
+        <v>1395</v>
       </c>
       <c r="Y22" s="51">
-        <v>-58</v>
+        <v>-1108</v>
       </c>
       <c r="Z22" s="53">
-        <v>1435</v>
+        <v>27467</v>
       </c>
       <c r="AA22" s="55">
-        <v>5056</v>
+        <v>90555</v>
       </c>
       <c r="AB22" s="57">
-        <v>-3621</v>
+        <v>-63088</v>
       </c>
       <c r="AC22" s="59">
-        <v>395</v>
+        <v>7823</v>
       </c>
       <c r="AD22" s="61">
-        <v>913</v>
+        <v>17707</v>
       </c>
       <c r="AE22" s="63">
-        <v>-518</v>
+        <v>-9884</v>
       </c>
       <c r="AF22" s="65">
         <v>0</v>
@@ -3935,16 +3935,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="71">
-        <v>1517</v>
+        <v>29021</v>
       </c>
       <c r="AJ22" s="73">
-        <v>223</v>
+        <v>4387</v>
       </c>
       <c r="AK22" s="75">
-        <v>1295</v>
+        <v>24634</v>
       </c>
       <c r="AL22" s="77">
-        <v>71026</v>
+        <v>1266782</v>
       </c>
     </row>
     <row r="23">
@@ -3952,94 +3952,94 @@
         <v>35</v>
       </c>
       <c r="B23" s="5">
-        <v>1015</v>
+        <v>23203</v>
       </c>
       <c r="C23" s="7">
-        <v>1414</v>
+        <v>32885</v>
       </c>
       <c r="D23" s="9">
-        <v>-399</v>
+        <v>-9681</v>
       </c>
       <c r="E23" s="11">
-        <v>2378</v>
+        <v>55054</v>
       </c>
       <c r="F23" s="13">
-        <v>2258</v>
+        <v>52272</v>
       </c>
       <c r="G23" s="15">
-        <v>120</v>
+        <v>2782</v>
       </c>
       <c r="H23" s="17">
-        <v>1330</v>
+        <v>30942</v>
       </c>
       <c r="I23" s="19">
-        <v>1068</v>
+        <v>24446</v>
       </c>
       <c r="J23" s="21">
-        <v>262</v>
+        <v>6496</v>
       </c>
       <c r="K23" s="23">
-        <v>590</v>
+        <v>13731</v>
       </c>
       <c r="L23" s="25">
-        <v>553</v>
+        <v>12715</v>
       </c>
       <c r="M23" s="27">
-        <v>37</v>
+        <v>1016</v>
       </c>
       <c r="N23" s="29">
-        <v>93</v>
+        <v>2174</v>
       </c>
       <c r="O23" s="31">
-        <v>56</v>
+        <v>1299</v>
       </c>
       <c r="P23" s="33">
-        <v>38</v>
+        <v>875</v>
       </c>
       <c r="Q23" s="35">
-        <v>251</v>
+        <v>5882</v>
       </c>
       <c r="R23" s="37">
-        <v>243</v>
+        <v>5431</v>
       </c>
       <c r="S23" s="39">
-        <v>8</v>
+        <v>451</v>
       </c>
       <c r="T23" s="41">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="U23" s="43">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="V23" s="45">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="W23" s="47">
         <v>0</v>
       </c>
       <c r="X23" s="49">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="Y23" s="51">
-        <v>-9</v>
+        <v>-209</v>
       </c>
       <c r="Z23" s="53">
-        <v>271</v>
+        <v>6292</v>
       </c>
       <c r="AA23" s="55">
-        <v>184</v>
+        <v>4259</v>
       </c>
       <c r="AB23" s="57">
-        <v>87</v>
+        <v>2033</v>
       </c>
       <c r="AC23" s="59">
-        <v>120</v>
+        <v>2761</v>
       </c>
       <c r="AD23" s="61">
-        <v>22</v>
+        <v>510</v>
       </c>
       <c r="AE23" s="63">
-        <v>98</v>
+        <v>2251</v>
       </c>
       <c r="AF23" s="65">
         <v>0</v>
@@ -4051,16 +4051,16 @@
         <v>0</v>
       </c>
       <c r="AI23" s="71">
-        <v>50</v>
+        <v>1168</v>
       </c>
       <c r="AJ23" s="73">
-        <v>33</v>
+        <v>765</v>
       </c>
       <c r="AK23" s="75">
-        <v>17</v>
+        <v>403</v>
       </c>
       <c r="AL23" s="77">
-        <v>4773</v>
+        <v>110368</v>
       </c>
     </row>
     <row r="24">
@@ -4068,94 +4068,94 @@
         <v>36</v>
       </c>
       <c r="B24" s="5">
-        <v>1785</v>
+        <v>42167</v>
       </c>
       <c r="C24" s="7">
-        <v>1452</v>
+        <v>34496</v>
       </c>
       <c r="D24" s="9">
-        <v>333</v>
+        <v>7671</v>
       </c>
       <c r="E24" s="11">
-        <v>4150</v>
+        <v>98105</v>
       </c>
       <c r="F24" s="13">
-        <v>3035</v>
+        <v>71522</v>
       </c>
       <c r="G24" s="15">
-        <v>1115</v>
+        <v>26583</v>
       </c>
       <c r="H24" s="17">
-        <v>960</v>
+        <v>22743</v>
       </c>
       <c r="I24" s="19">
-        <v>2402</v>
+        <v>56858</v>
       </c>
       <c r="J24" s="21">
-        <v>-1442</v>
+        <v>-34115</v>
       </c>
       <c r="K24" s="23">
-        <v>557</v>
+        <v>13207</v>
       </c>
       <c r="L24" s="25">
-        <v>487</v>
+        <v>11487</v>
       </c>
       <c r="M24" s="27">
-        <v>70</v>
+        <v>1720</v>
       </c>
       <c r="N24" s="29">
-        <v>34</v>
+        <v>812</v>
       </c>
       <c r="O24" s="31">
-        <v>110</v>
+        <v>2630</v>
       </c>
       <c r="P24" s="33">
-        <v>-76</v>
+        <v>-1817</v>
       </c>
       <c r="Q24" s="35">
-        <v>127</v>
+        <v>2966</v>
       </c>
       <c r="R24" s="37">
-        <v>832</v>
+        <v>19777</v>
       </c>
       <c r="S24" s="39">
-        <v>-705</v>
+        <v>-16811</v>
       </c>
       <c r="T24" s="41">
-        <v>72</v>
+        <v>1703</v>
       </c>
       <c r="U24" s="43">
-        <v>130</v>
+        <v>3113</v>
       </c>
       <c r="V24" s="45">
-        <v>-58</v>
+        <v>-1411</v>
       </c>
       <c r="W24" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="49">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="Y24" s="51">
-        <v>-5</v>
+        <v>-106</v>
       </c>
       <c r="Z24" s="53">
-        <v>152</v>
+        <v>3599</v>
       </c>
       <c r="AA24" s="55">
-        <v>754</v>
+        <v>17745</v>
       </c>
       <c r="AB24" s="57">
-        <v>-602</v>
+        <v>-14147</v>
       </c>
       <c r="AC24" s="59">
-        <v>18</v>
+        <v>456</v>
       </c>
       <c r="AD24" s="61">
-        <v>85</v>
+        <v>1999</v>
       </c>
       <c r="AE24" s="63">
-        <v>-67</v>
+        <v>-1543</v>
       </c>
       <c r="AF24" s="65">
         <v>0</v>
@@ -4167,16 +4167,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="71">
-        <v>35</v>
+        <v>814</v>
       </c>
       <c r="AJ24" s="73">
-        <v>40</v>
+        <v>954</v>
       </c>
       <c r="AK24" s="75">
-        <v>-6</v>
+        <v>-140</v>
       </c>
       <c r="AL24" s="77">
-        <v>6929</v>
+        <v>163829</v>
       </c>
     </row>
     <row r="25">
@@ -4184,94 +4184,94 @@
         <v>37</v>
       </c>
       <c r="B25" s="5">
-        <v>1556</v>
+        <v>40660</v>
       </c>
       <c r="C25" s="7">
-        <v>1291</v>
+        <v>33799</v>
       </c>
       <c r="D25" s="9">
-        <v>265</v>
+        <v>6861</v>
       </c>
       <c r="E25" s="11">
-        <v>2775</v>
+        <v>72420</v>
       </c>
       <c r="F25" s="13">
-        <v>2271</v>
+        <v>59405</v>
       </c>
       <c r="G25" s="15">
-        <v>503</v>
+        <v>13015</v>
       </c>
       <c r="H25" s="17">
-        <v>961</v>
+        <v>25185</v>
       </c>
       <c r="I25" s="19">
-        <v>1734</v>
+        <v>45182</v>
       </c>
       <c r="J25" s="21">
-        <v>-773</v>
+        <v>-19997</v>
       </c>
       <c r="K25" s="23">
-        <v>583</v>
+        <v>15245</v>
       </c>
       <c r="L25" s="25">
-        <v>541</v>
+        <v>14133</v>
       </c>
       <c r="M25" s="27">
-        <v>42</v>
+        <v>1112</v>
       </c>
       <c r="N25" s="29">
-        <v>34</v>
+        <v>915</v>
       </c>
       <c r="O25" s="31">
-        <v>56</v>
+        <v>1454</v>
       </c>
       <c r="P25" s="33">
-        <v>-22</v>
+        <v>-539</v>
       </c>
       <c r="Q25" s="35">
-        <v>104</v>
+        <v>2760</v>
       </c>
       <c r="R25" s="37">
-        <v>199</v>
+        <v>5166</v>
       </c>
       <c r="S25" s="39">
-        <v>-94</v>
+        <v>-2405</v>
       </c>
       <c r="T25" s="41">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="U25" s="43">
-        <v>38</v>
+        <v>993</v>
       </c>
       <c r="V25" s="45">
-        <v>-37</v>
+        <v>-955</v>
       </c>
       <c r="W25" s="47">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="X25" s="49">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="Y25" s="51">
-        <v>-2</v>
+        <v>-42</v>
       </c>
       <c r="Z25" s="53">
-        <v>210</v>
+        <v>5505</v>
       </c>
       <c r="AA25" s="55">
-        <v>802</v>
+        <v>20868</v>
       </c>
       <c r="AB25" s="57">
-        <v>-591</v>
+        <v>-15363</v>
       </c>
       <c r="AC25" s="59">
-        <v>27</v>
+        <v>701</v>
       </c>
       <c r="AD25" s="61">
-        <v>96</v>
+        <v>2507</v>
       </c>
       <c r="AE25" s="63">
-        <v>-69</v>
+        <v>-1806</v>
       </c>
       <c r="AF25" s="65">
         <v>0</v>
@@ -4283,16 +4283,16 @@
         <v>0</v>
       </c>
       <c r="AI25" s="71">
-        <v>25</v>
+        <v>644</v>
       </c>
       <c r="AJ25" s="73">
-        <v>20</v>
+        <v>522</v>
       </c>
       <c r="AK25" s="75">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="AL25" s="77">
-        <v>5316</v>
+        <v>138909</v>
       </c>
     </row>
     <row r="26">
@@ -4300,94 +4300,94 @@
         <v>38</v>
       </c>
       <c r="B26" s="5">
-        <v>1355</v>
+        <v>38613</v>
       </c>
       <c r="C26" s="7">
-        <v>1818</v>
+        <v>51997</v>
       </c>
       <c r="D26" s="9">
-        <v>-462</v>
+        <v>-13384</v>
       </c>
       <c r="E26" s="11">
-        <v>3204</v>
+        <v>91224</v>
       </c>
       <c r="F26" s="13">
-        <v>2708</v>
+        <v>77120</v>
       </c>
       <c r="G26" s="15">
-        <v>496</v>
+        <v>14104</v>
       </c>
       <c r="H26" s="17">
-        <v>829</v>
+        <v>23766</v>
       </c>
       <c r="I26" s="19">
-        <v>877</v>
+        <v>24898</v>
       </c>
       <c r="J26" s="21">
-        <v>-48</v>
+        <v>-1132</v>
       </c>
       <c r="K26" s="23">
-        <v>415</v>
+        <v>11863</v>
       </c>
       <c r="L26" s="25">
-        <v>502</v>
+        <v>14275</v>
       </c>
       <c r="M26" s="27">
-        <v>-87</v>
+        <v>-2413</v>
       </c>
       <c r="N26" s="29">
-        <v>46</v>
+        <v>1336</v>
       </c>
       <c r="O26" s="31">
+        <v>1950</v>
+      </c>
+      <c r="P26" s="33">
+        <v>-613</v>
+      </c>
+      <c r="Q26" s="35">
+        <v>3284</v>
+      </c>
+      <c r="R26" s="37">
+        <v>2588</v>
+      </c>
+      <c r="S26" s="39">
+        <v>696</v>
+      </c>
+      <c r="T26" s="41">
         <v>68</v>
       </c>
-      <c r="P26" s="33">
-        <v>-22</v>
-      </c>
-      <c r="Q26" s="35">
-        <v>116</v>
-      </c>
-      <c r="R26" s="37">
-        <v>92</v>
-      </c>
-      <c r="S26" s="39">
-        <v>24</v>
-      </c>
-      <c r="T26" s="41">
-        <v>2</v>
-      </c>
       <c r="U26" s="43">
-        <v>11</v>
+        <v>312</v>
       </c>
       <c r="V26" s="45">
-        <v>-9</v>
+        <v>-244</v>
       </c>
       <c r="W26" s="47">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="X26" s="49">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="Y26" s="51">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="Z26" s="53">
-        <v>198</v>
+        <v>5748</v>
       </c>
       <c r="AA26" s="55">
-        <v>152</v>
+        <v>4329</v>
       </c>
       <c r="AB26" s="57">
-        <v>46</v>
+        <v>1419</v>
       </c>
       <c r="AC26" s="59">
-        <v>50</v>
+        <v>1442</v>
       </c>
       <c r="AD26" s="61">
-        <v>50</v>
+        <v>1414</v>
       </c>
       <c r="AE26" s="63">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="AF26" s="65">
         <v>0</v>
@@ -4399,16 +4399,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="71">
-        <v>44</v>
+        <v>1273</v>
       </c>
       <c r="AJ26" s="73">
-        <v>30</v>
+        <v>860</v>
       </c>
       <c r="AK26" s="75">
-        <v>14</v>
+        <v>412</v>
       </c>
       <c r="AL26" s="77">
-        <v>5433</v>
+        <v>154876</v>
       </c>
     </row>
     <row r="27">
@@ -4416,115 +4416,115 @@
         <v>39</v>
       </c>
       <c r="B27" s="5">
-        <v>1509</v>
+        <v>44085</v>
       </c>
       <c r="C27" s="7">
-        <v>1658</v>
+        <v>48542</v>
       </c>
       <c r="D27" s="9">
-        <v>-149</v>
+        <v>-4458</v>
       </c>
       <c r="E27" s="11">
-        <v>4075</v>
+        <v>119569</v>
       </c>
       <c r="F27" s="13">
-        <v>4086</v>
+        <v>119890</v>
       </c>
       <c r="G27" s="15">
-        <v>-11</v>
+        <v>-321</v>
       </c>
       <c r="H27" s="17">
-        <v>1196</v>
+        <v>35236</v>
       </c>
       <c r="I27" s="19">
-        <v>1037</v>
+        <v>30468</v>
       </c>
       <c r="J27" s="21">
-        <v>160</v>
+        <v>4768</v>
       </c>
       <c r="K27" s="23">
-        <v>616</v>
+        <v>18017</v>
       </c>
       <c r="L27" s="25">
-        <v>533</v>
+        <v>15520</v>
       </c>
       <c r="M27" s="27">
-        <v>83</v>
+        <v>2497</v>
       </c>
       <c r="N27" s="29">
-        <v>11</v>
+        <v>314</v>
       </c>
       <c r="O27" s="31">
-        <v>117</v>
+        <v>3515</v>
       </c>
       <c r="P27" s="33">
-        <v>-107</v>
+        <v>-3201</v>
       </c>
       <c r="Q27" s="35">
-        <v>240</v>
+        <v>7097</v>
       </c>
       <c r="R27" s="37">
-        <v>74</v>
+        <v>2185</v>
       </c>
       <c r="S27" s="39">
-        <v>166</v>
+        <v>4912</v>
       </c>
       <c r="T27" s="41">
+        <v>286</v>
+      </c>
+      <c r="U27" s="43">
+        <v>292</v>
+      </c>
+      <c r="V27" s="45">
+        <v>-6</v>
+      </c>
+      <c r="W27" s="47">
+        <v>3</v>
+      </c>
+      <c r="X27" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="51">
+        <v>3</v>
+      </c>
+      <c r="Z27" s="53">
+        <v>7320</v>
+      </c>
+      <c r="AA27" s="55">
+        <v>5999</v>
+      </c>
+      <c r="AB27" s="57">
+        <v>1320</v>
+      </c>
+      <c r="AC27" s="59">
+        <v>2200</v>
+      </c>
+      <c r="AD27" s="61">
+        <v>2957</v>
+      </c>
+      <c r="AE27" s="63">
+        <v>-757</v>
+      </c>
+      <c r="AF27" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="69">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="71">
+        <v>1323</v>
+      </c>
+      <c r="AJ27" s="73">
+        <v>1312</v>
+      </c>
+      <c r="AK27" s="75">
         <v>10</v>
       </c>
-      <c r="U27" s="43">
-        <v>10</v>
-      </c>
-      <c r="V27" s="45">
-        <v>0</v>
-      </c>
-      <c r="W27" s="47">
-        <v>0</v>
-      </c>
-      <c r="X27" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="53">
-        <v>245</v>
-      </c>
-      <c r="AA27" s="55">
-        <v>203</v>
-      </c>
-      <c r="AB27" s="57">
-        <v>42</v>
-      </c>
-      <c r="AC27" s="59">
-        <v>75</v>
-      </c>
-      <c r="AD27" s="61">
-        <v>99</v>
-      </c>
-      <c r="AE27" s="63">
-        <v>-24</v>
-      </c>
-      <c r="AF27" s="65">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="67">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="69">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="71">
-        <v>45</v>
-      </c>
-      <c r="AJ27" s="73">
-        <v>44</v>
-      </c>
-      <c r="AK27" s="75">
-        <v>0</v>
-      </c>
       <c r="AL27" s="77">
-        <v>6825</v>
+        <v>200213</v>
       </c>
     </row>
     <row r="28">
@@ -4532,94 +4532,94 @@
         <v>40</v>
       </c>
       <c r="B28" s="5">
-        <v>2035</v>
+        <v>64954</v>
       </c>
       <c r="C28" s="7">
-        <v>2002</v>
+        <v>64039</v>
       </c>
       <c r="D28" s="9">
-        <v>33</v>
+        <v>915</v>
       </c>
       <c r="E28" s="11">
-        <v>7657</v>
+        <v>245074</v>
       </c>
       <c r="F28" s="13">
-        <v>8031</v>
+        <v>257086</v>
       </c>
       <c r="G28" s="15">
-        <v>-375</v>
+        <v>-12012</v>
       </c>
       <c r="H28" s="17">
-        <v>1613</v>
+        <v>51500</v>
       </c>
       <c r="I28" s="19">
-        <v>1216</v>
+        <v>38642</v>
       </c>
       <c r="J28" s="21">
-        <v>397</v>
+        <v>12859</v>
       </c>
       <c r="K28" s="23">
-        <v>589</v>
+        <v>18772</v>
       </c>
       <c r="L28" s="25">
-        <v>408</v>
+        <v>13003</v>
       </c>
       <c r="M28" s="27">
-        <v>181</v>
+        <v>5769</v>
       </c>
       <c r="N28" s="29">
-        <v>65</v>
+        <v>2080</v>
       </c>
       <c r="O28" s="31">
-        <v>194</v>
+        <v>6191</v>
       </c>
       <c r="P28" s="33">
-        <v>-129</v>
+        <v>-4112</v>
       </c>
       <c r="Q28" s="35">
-        <v>345</v>
+        <v>11040</v>
       </c>
       <c r="R28" s="37">
-        <v>49</v>
+        <v>1538</v>
       </c>
       <c r="S28" s="39">
-        <v>297</v>
+        <v>9502</v>
       </c>
       <c r="T28" s="41">
-        <v>29</v>
+        <v>940</v>
       </c>
       <c r="U28" s="43">
-        <v>14</v>
+        <v>432</v>
       </c>
       <c r="V28" s="45">
-        <v>16</v>
+        <v>508</v>
       </c>
       <c r="W28" s="47">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="X28" s="49">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="Y28" s="51">
-        <v>-1</v>
+        <v>-16</v>
       </c>
       <c r="Z28" s="53">
-        <v>476</v>
+        <v>15230</v>
       </c>
       <c r="AA28" s="55">
-        <v>450</v>
+        <v>14287</v>
       </c>
       <c r="AB28" s="57">
-        <v>26</v>
+        <v>943</v>
       </c>
       <c r="AC28" s="59">
-        <v>108</v>
+        <v>3392</v>
       </c>
       <c r="AD28" s="61">
-        <v>100</v>
+        <v>3127</v>
       </c>
       <c r="AE28" s="63">
-        <v>8</v>
+        <v>264</v>
       </c>
       <c r="AF28" s="65">
         <v>0</v>
@@ -4631,16 +4631,16 @@
         <v>0</v>
       </c>
       <c r="AI28" s="71">
-        <v>54</v>
+        <v>1717</v>
       </c>
       <c r="AJ28" s="73">
-        <v>109</v>
+        <v>3479</v>
       </c>
       <c r="AK28" s="75">
-        <v>-55</v>
+        <v>-1762</v>
       </c>
       <c r="AL28" s="77">
-        <v>11359</v>
+        <v>363245</v>
       </c>
     </row>
     <row r="29">
@@ -4648,94 +4648,94 @@
         <v>41</v>
       </c>
       <c r="B29" s="5">
-        <v>3329</v>
+        <v>101665</v>
       </c>
       <c r="C29" s="7">
-        <v>3099</v>
+        <v>94074</v>
       </c>
       <c r="D29" s="9">
-        <v>230</v>
+        <v>7591</v>
       </c>
       <c r="E29" s="11">
-        <v>15443</v>
+        <v>469928</v>
       </c>
       <c r="F29" s="13">
-        <v>15711</v>
+        <v>479583</v>
       </c>
       <c r="G29" s="15">
-        <v>-268</v>
+        <v>-9655</v>
       </c>
       <c r="H29" s="17">
-        <v>1790</v>
+        <v>54633</v>
       </c>
       <c r="I29" s="19">
-        <v>1776</v>
+        <v>53299</v>
       </c>
       <c r="J29" s="21">
-        <v>14</v>
+        <v>1334</v>
       </c>
       <c r="K29" s="23">
-        <v>578</v>
+        <v>17604</v>
       </c>
       <c r="L29" s="25">
-        <v>621</v>
+        <v>18767</v>
       </c>
       <c r="M29" s="27">
-        <v>-43</v>
+        <v>-1163</v>
       </c>
       <c r="N29" s="29">
-        <v>94</v>
+        <v>2863</v>
       </c>
       <c r="O29" s="31">
-        <v>104</v>
+        <v>3115</v>
       </c>
       <c r="P29" s="33">
-        <v>-10</v>
+        <v>-253</v>
       </c>
       <c r="Q29" s="35">
-        <v>254</v>
+        <v>7774</v>
       </c>
       <c r="R29" s="37">
-        <v>255</v>
+        <v>7589</v>
       </c>
       <c r="S29" s="39">
-        <v>-1</v>
+        <v>185</v>
       </c>
       <c r="T29" s="41">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="U29" s="43">
-        <v>23</v>
+        <v>705</v>
       </c>
       <c r="V29" s="45">
-        <v>-15</v>
+        <v>-484</v>
       </c>
       <c r="W29" s="47">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="X29" s="49">
-        <v>21</v>
+        <v>651</v>
       </c>
       <c r="Y29" s="51">
-        <v>-19</v>
+        <v>-594</v>
       </c>
       <c r="Z29" s="53">
-        <v>682</v>
+        <v>20675</v>
       </c>
       <c r="AA29" s="55">
-        <v>633</v>
+        <v>18918</v>
       </c>
       <c r="AB29" s="57">
-        <v>48</v>
+        <v>1757</v>
       </c>
       <c r="AC29" s="59">
-        <v>173</v>
+        <v>5440</v>
       </c>
       <c r="AD29" s="61">
-        <v>119</v>
+        <v>3554</v>
       </c>
       <c r="AE29" s="63">
-        <v>54</v>
+        <v>1887</v>
       </c>
       <c r="AF29" s="65">
         <v>0</v>
@@ -4747,16 +4747,16 @@
         <v>0</v>
       </c>
       <c r="AI29" s="71">
-        <v>203</v>
+        <v>6199</v>
       </c>
       <c r="AJ29" s="73">
-        <v>179</v>
+        <v>5470</v>
       </c>
       <c r="AK29" s="75">
-        <v>24</v>
+        <v>730</v>
       </c>
       <c r="AL29" s="77">
-        <v>20765</v>
+        <v>632426</v>
       </c>
     </row>
     <row r="30">
@@ -4764,94 +4764,94 @@
         <v>42</v>
       </c>
       <c r="B30" s="5">
-        <v>2070</v>
+        <v>59854</v>
       </c>
       <c r="C30" s="7">
-        <v>1885</v>
+        <v>54128</v>
       </c>
       <c r="D30" s="9">
-        <v>185</v>
+        <v>5726</v>
       </c>
       <c r="E30" s="11">
-        <v>7791</v>
+        <v>224974</v>
       </c>
       <c r="F30" s="13">
-        <v>8573</v>
+        <v>248476</v>
       </c>
       <c r="G30" s="15">
-        <v>-782</v>
+        <v>-23502</v>
       </c>
       <c r="H30" s="17">
-        <v>1727</v>
+        <v>50070</v>
       </c>
       <c r="I30" s="19">
-        <v>1121</v>
+        <v>32036</v>
       </c>
       <c r="J30" s="21">
-        <v>606</v>
+        <v>18034</v>
       </c>
       <c r="K30" s="23">
-        <v>626</v>
+        <v>18056</v>
       </c>
       <c r="L30" s="25">
-        <v>475</v>
+        <v>13670</v>
       </c>
       <c r="M30" s="27">
-        <v>151</v>
+        <v>4387</v>
       </c>
       <c r="N30" s="29">
-        <v>99</v>
+        <v>2865</v>
       </c>
       <c r="O30" s="31">
-        <v>84</v>
+        <v>2351</v>
       </c>
       <c r="P30" s="33">
-        <v>15</v>
+        <v>514</v>
       </c>
       <c r="Q30" s="35">
-        <v>246</v>
+        <v>7187</v>
       </c>
       <c r="R30" s="37">
-        <v>224</v>
+        <v>6395</v>
       </c>
       <c r="S30" s="39">
-        <v>23</v>
+        <v>791</v>
       </c>
       <c r="T30" s="41">
-        <v>24</v>
+        <v>690</v>
       </c>
       <c r="U30" s="43">
-        <v>32</v>
+        <v>925</v>
       </c>
       <c r="V30" s="45">
-        <v>-8</v>
+        <v>-234</v>
       </c>
       <c r="W30" s="47">
-        <v>12</v>
+        <v>368</v>
       </c>
       <c r="X30" s="49">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="Y30" s="51">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="Z30" s="53">
-        <v>652</v>
+        <v>18945</v>
       </c>
       <c r="AA30" s="55">
-        <v>281</v>
+        <v>7963</v>
       </c>
       <c r="AB30" s="57">
-        <v>371</v>
+        <v>10982</v>
       </c>
       <c r="AC30" s="59">
-        <v>67</v>
+        <v>1958</v>
       </c>
       <c r="AD30" s="61">
-        <v>18</v>
+        <v>526</v>
       </c>
       <c r="AE30" s="63">
-        <v>49</v>
+        <v>1433</v>
       </c>
       <c r="AF30" s="65">
         <v>0</v>
@@ -4863,16 +4863,16 @@
         <v>0</v>
       </c>
       <c r="AI30" s="71">
-        <v>66</v>
+        <v>1903</v>
       </c>
       <c r="AJ30" s="73">
-        <v>74</v>
+        <v>2160</v>
       </c>
       <c r="AK30" s="75">
-        <v>-8</v>
+        <v>-258</v>
       </c>
       <c r="AL30" s="77">
-        <v>11654</v>
+        <v>336800</v>
       </c>
     </row>
     <row r="31">
@@ -4880,94 +4880,94 @@
         <v>43</v>
       </c>
       <c r="B31" s="5">
-        <v>1585</v>
+        <v>45945</v>
       </c>
       <c r="C31" s="7">
-        <v>2041</v>
+        <v>58808</v>
       </c>
       <c r="D31" s="9">
-        <v>-456</v>
+        <v>-12863</v>
       </c>
       <c r="E31" s="11">
-        <v>10138</v>
+        <v>291139</v>
       </c>
       <c r="F31" s="13">
-        <v>8785</v>
+        <v>252748</v>
       </c>
       <c r="G31" s="15">
-        <v>1354</v>
+        <v>38391</v>
       </c>
       <c r="H31" s="17">
-        <v>1126</v>
+        <v>32434</v>
       </c>
       <c r="I31" s="19">
-        <v>1985</v>
+        <v>56848</v>
       </c>
       <c r="J31" s="21">
-        <v>-859</v>
+        <v>-24415</v>
       </c>
       <c r="K31" s="23">
-        <v>362</v>
+        <v>10361</v>
       </c>
       <c r="L31" s="25">
-        <v>407</v>
+        <v>11684</v>
       </c>
       <c r="M31" s="27">
-        <v>-45</v>
+        <v>-1322</v>
       </c>
       <c r="N31" s="29">
-        <v>84</v>
+        <v>2399</v>
       </c>
       <c r="O31" s="31">
-        <v>155</v>
+        <v>4394</v>
       </c>
       <c r="P31" s="33">
-        <v>-70</v>
+        <v>-1994</v>
       </c>
       <c r="Q31" s="35">
-        <v>362</v>
+        <v>10525</v>
       </c>
       <c r="R31" s="37">
-        <v>450</v>
+        <v>12857</v>
       </c>
       <c r="S31" s="39">
-        <v>-88</v>
+        <v>-2332</v>
       </c>
       <c r="T31" s="41">
-        <v>18</v>
+        <v>508</v>
       </c>
       <c r="U31" s="43">
-        <v>24</v>
+        <v>676</v>
       </c>
       <c r="V31" s="45">
-        <v>-6</v>
+        <v>-168</v>
       </c>
       <c r="W31" s="47">
-        <v>14</v>
+        <v>428</v>
       </c>
       <c r="X31" s="49">
-        <v>36</v>
+        <v>1035</v>
       </c>
       <c r="Y31" s="51">
-        <v>-22</v>
+        <v>-607</v>
       </c>
       <c r="Z31" s="53">
-        <v>241</v>
+        <v>6902</v>
       </c>
       <c r="AA31" s="55">
-        <v>618</v>
+        <v>17568</v>
       </c>
       <c r="AB31" s="57">
-        <v>-377</v>
+        <v>-10667</v>
       </c>
       <c r="AC31" s="59">
-        <v>45</v>
+        <v>1311</v>
       </c>
       <c r="AD31" s="61">
-        <v>296</v>
+        <v>8634</v>
       </c>
       <c r="AE31" s="63">
-        <v>-250</v>
+        <v>-7324</v>
       </c>
       <c r="AF31" s="65">
         <v>0</v>
@@ -4979,16 +4979,16 @@
         <v>0</v>
       </c>
       <c r="AI31" s="71">
-        <v>42</v>
+        <v>1200</v>
       </c>
       <c r="AJ31" s="73">
-        <v>81</v>
+        <v>2313</v>
       </c>
       <c r="AK31" s="75">
-        <v>-39</v>
+        <v>-1113</v>
       </c>
       <c r="AL31" s="77">
-        <v>12891</v>
+        <v>370718</v>
       </c>
     </row>
     <row r="32">
@@ -4996,94 +4996,94 @@
         <v>44</v>
       </c>
       <c r="B32" s="5">
-        <v>2302</v>
+        <v>64631</v>
       </c>
       <c r="C32" s="7">
-        <v>2005</v>
+        <v>56581</v>
       </c>
       <c r="D32" s="9">
-        <v>296</v>
+        <v>8049</v>
       </c>
       <c r="E32" s="11">
-        <v>7650</v>
+        <v>215904</v>
       </c>
       <c r="F32" s="13">
-        <v>8554</v>
+        <v>242389</v>
       </c>
       <c r="G32" s="15">
-        <v>-903</v>
+        <v>-26485</v>
       </c>
       <c r="H32" s="17">
-        <v>2170</v>
+        <v>61695</v>
       </c>
       <c r="I32" s="19">
-        <v>1580</v>
+        <v>43690</v>
       </c>
       <c r="J32" s="21">
-        <v>590</v>
+        <v>18005</v>
       </c>
       <c r="K32" s="23">
-        <v>851</v>
+        <v>23845</v>
       </c>
       <c r="L32" s="25">
-        <v>760</v>
+        <v>21136</v>
       </c>
       <c r="M32" s="27">
-        <v>90</v>
+        <v>2709</v>
       </c>
       <c r="N32" s="29">
-        <v>154</v>
+        <v>4411</v>
       </c>
       <c r="O32" s="31">
-        <v>113</v>
+        <v>3057</v>
       </c>
       <c r="P32" s="33">
-        <v>41</v>
+        <v>1353</v>
       </c>
       <c r="Q32" s="35">
-        <v>356</v>
+        <v>10281</v>
       </c>
       <c r="R32" s="37">
-        <v>174</v>
+        <v>4770</v>
       </c>
       <c r="S32" s="39">
-        <v>182</v>
+        <v>5511</v>
       </c>
       <c r="T32" s="41">
-        <v>117</v>
+        <v>3306</v>
       </c>
       <c r="U32" s="43">
-        <v>21</v>
+        <v>586</v>
       </c>
       <c r="V32" s="45">
+        <v>2720</v>
+      </c>
+      <c r="W32" s="47">
+        <v>44</v>
+      </c>
+      <c r="X32" s="49">
         <v>96</v>
       </c>
-      <c r="W32" s="47">
-        <v>1</v>
-      </c>
-      <c r="X32" s="49">
-        <v>3</v>
-      </c>
       <c r="Y32" s="51">
-        <v>-2</v>
+        <v>-52</v>
       </c>
       <c r="Z32" s="53">
-        <v>426</v>
+        <v>12106</v>
       </c>
       <c r="AA32" s="55">
-        <v>451</v>
+        <v>12438</v>
       </c>
       <c r="AB32" s="57">
-        <v>-25</v>
+        <v>-332</v>
       </c>
       <c r="AC32" s="59">
-        <v>265</v>
+        <v>7703</v>
       </c>
       <c r="AD32" s="61">
-        <v>57</v>
+        <v>1607</v>
       </c>
       <c r="AE32" s="63">
-        <v>208</v>
+        <v>6096</v>
       </c>
       <c r="AF32" s="65">
         <v>0</v>
@@ -5095,16 +5095,16 @@
         <v>0</v>
       </c>
       <c r="AI32" s="71">
-        <v>83</v>
+        <v>2332</v>
       </c>
       <c r="AJ32" s="73">
-        <v>66</v>
+        <v>1902</v>
       </c>
       <c r="AK32" s="75">
-        <v>17</v>
+        <v>430</v>
       </c>
       <c r="AL32" s="77">
-        <v>12205</v>
+        <v>344562</v>
       </c>
     </row>
     <row r="33">
@@ -5112,94 +5112,94 @@
         <v>45</v>
       </c>
       <c r="B33" s="5">
-        <v>1701</v>
+        <v>48800</v>
       </c>
       <c r="C33" s="7">
-        <v>1922</v>
+        <v>55866</v>
       </c>
       <c r="D33" s="9">
-        <v>-221</v>
+        <v>-7066</v>
       </c>
       <c r="E33" s="11">
-        <v>10994</v>
+        <v>321063</v>
       </c>
       <c r="F33" s="13">
-        <v>10553</v>
+        <v>307646</v>
       </c>
       <c r="G33" s="15">
-        <v>441</v>
+        <v>13418</v>
       </c>
       <c r="H33" s="17">
-        <v>1562</v>
+        <v>45095</v>
       </c>
       <c r="I33" s="19">
-        <v>1803</v>
+        <v>52098</v>
       </c>
       <c r="J33" s="21">
-        <v>-241</v>
+        <v>-7003</v>
       </c>
       <c r="K33" s="23">
-        <v>813</v>
+        <v>23338</v>
       </c>
       <c r="L33" s="25">
-        <v>978</v>
+        <v>28369</v>
       </c>
       <c r="M33" s="27">
-        <v>-165</v>
+        <v>-5031</v>
       </c>
       <c r="N33" s="29">
-        <v>30</v>
+        <v>879</v>
       </c>
       <c r="O33" s="31">
-        <v>104</v>
+        <v>2980</v>
       </c>
       <c r="P33" s="33">
-        <v>-74</v>
+        <v>-2101</v>
       </c>
       <c r="Q33" s="35">
-        <v>147</v>
+        <v>4377</v>
       </c>
       <c r="R33" s="37">
-        <v>278</v>
+        <v>8031</v>
       </c>
       <c r="S33" s="39">
-        <v>-132</v>
+        <v>-3654</v>
       </c>
       <c r="T33" s="41">
-        <v>211</v>
+        <v>6047</v>
       </c>
       <c r="U33" s="43">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="V33" s="45">
-        <v>204</v>
+        <v>5852</v>
       </c>
       <c r="W33" s="47">
         <v>0</v>
       </c>
       <c r="X33" s="49">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="Y33" s="51">
-        <v>-5</v>
+        <v>-159</v>
       </c>
       <c r="Z33" s="53">
-        <v>339</v>
+        <v>9809</v>
       </c>
       <c r="AA33" s="55">
-        <v>328</v>
+        <v>9403</v>
       </c>
       <c r="AB33" s="57">
-        <v>12</v>
+        <v>407</v>
       </c>
       <c r="AC33" s="59">
-        <v>22</v>
+        <v>644</v>
       </c>
       <c r="AD33" s="61">
-        <v>102</v>
+        <v>2961</v>
       </c>
       <c r="AE33" s="63">
-        <v>-80</v>
+        <v>-2316</v>
       </c>
       <c r="AF33" s="65">
         <v>0</v>
@@ -5211,16 +5211,16 @@
         <v>0</v>
       </c>
       <c r="AI33" s="71">
-        <v>163</v>
+        <v>4852</v>
       </c>
       <c r="AJ33" s="73">
-        <v>143</v>
+        <v>4199</v>
       </c>
       <c r="AK33" s="75">
-        <v>21</v>
+        <v>652</v>
       </c>
       <c r="AL33" s="77">
-        <v>14420</v>
+        <v>419809</v>
       </c>
     </row>
     <row r="34">
@@ -5228,94 +5228,94 @@
         <v>46</v>
       </c>
       <c r="B34" s="5">
-        <v>4996</v>
+        <v>144521</v>
       </c>
       <c r="C34" s="7">
-        <v>4454</v>
+        <v>128568</v>
       </c>
       <c r="D34" s="9">
-        <v>542</v>
+        <v>15954</v>
       </c>
       <c r="E34" s="11">
-        <v>23624</v>
+        <v>677385</v>
       </c>
       <c r="F34" s="13">
-        <v>23860</v>
+        <v>684127</v>
       </c>
       <c r="G34" s="15">
-        <v>-236</v>
+        <v>-6742</v>
       </c>
       <c r="H34" s="17">
-        <v>4562</v>
+        <v>130549</v>
       </c>
       <c r="I34" s="19">
-        <v>4949</v>
+        <v>142193</v>
       </c>
       <c r="J34" s="21">
-        <v>-388</v>
+        <v>-11644</v>
       </c>
       <c r="K34" s="23">
-        <v>1944</v>
+        <v>55523</v>
       </c>
       <c r="L34" s="25">
-        <v>2010</v>
+        <v>57278</v>
       </c>
       <c r="M34" s="27">
-        <v>-66</v>
+        <v>-1755</v>
       </c>
       <c r="N34" s="29">
-        <v>431</v>
+        <v>12378</v>
       </c>
       <c r="O34" s="31">
-        <v>229</v>
+        <v>6591</v>
       </c>
       <c r="P34" s="33">
-        <v>202</v>
+        <v>5787</v>
       </c>
       <c r="Q34" s="35">
-        <v>442</v>
+        <v>12714</v>
       </c>
       <c r="R34" s="37">
-        <v>666</v>
+        <v>19054</v>
       </c>
       <c r="S34" s="39">
-        <v>-224</v>
+        <v>-6340</v>
       </c>
       <c r="T34" s="41">
-        <v>11</v>
+        <v>301</v>
       </c>
       <c r="U34" s="43">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="V34" s="45">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="W34" s="47">
-        <v>14</v>
+        <v>404</v>
       </c>
       <c r="X34" s="49">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="Y34" s="51">
-        <v>14</v>
+        <v>381</v>
       </c>
       <c r="Z34" s="53">
-        <v>1328</v>
+        <v>38036</v>
       </c>
       <c r="AA34" s="55">
-        <v>1239</v>
+        <v>35902</v>
       </c>
       <c r="AB34" s="57">
-        <v>89</v>
+        <v>2134</v>
       </c>
       <c r="AC34" s="59">
-        <v>391</v>
+        <v>11193</v>
       </c>
       <c r="AD34" s="61">
-        <v>794</v>
+        <v>23076</v>
       </c>
       <c r="AE34" s="63">
-        <v>-404</v>
+        <v>-11883</v>
       </c>
       <c r="AF34" s="65">
         <v>0</v>
@@ -5327,16 +5327,16 @@
         <v>0</v>
       </c>
       <c r="AI34" s="71">
-        <v>331</v>
+        <v>9590</v>
       </c>
       <c r="AJ34" s="73">
-        <v>249</v>
+        <v>7157</v>
       </c>
       <c r="AK34" s="75">
-        <v>82</v>
+        <v>2432</v>
       </c>
       <c r="AL34" s="77">
-        <v>33512</v>
+        <v>962045</v>
       </c>
     </row>
     <row r="35">
@@ -5344,94 +5344,94 @@
         <v>47</v>
       </c>
       <c r="B35" s="5">
-        <v>4424</v>
+        <v>108899</v>
       </c>
       <c r="C35" s="7">
-        <v>3629</v>
+        <v>89821</v>
       </c>
       <c r="D35" s="9">
-        <v>795</v>
+        <v>19078</v>
       </c>
       <c r="E35" s="11">
-        <v>26239</v>
+        <v>646199</v>
       </c>
       <c r="F35" s="13">
-        <v>29731</v>
+        <v>732206</v>
       </c>
       <c r="G35" s="15">
-        <v>-3492</v>
+        <v>-86007</v>
       </c>
       <c r="H35" s="17">
-        <v>5842</v>
+        <v>143372</v>
       </c>
       <c r="I35" s="19">
-        <v>2923</v>
+        <v>71932</v>
       </c>
       <c r="J35" s="21">
-        <v>2919</v>
+        <v>71440</v>
       </c>
       <c r="K35" s="23">
-        <v>2028</v>
+        <v>49679</v>
       </c>
       <c r="L35" s="25">
-        <v>1744</v>
+        <v>42881</v>
       </c>
       <c r="M35" s="27">
-        <v>284</v>
+        <v>6798</v>
       </c>
       <c r="N35" s="29">
-        <v>354</v>
+        <v>8679</v>
       </c>
       <c r="O35" s="31">
-        <v>80</v>
+        <v>1965</v>
       </c>
       <c r="P35" s="33">
-        <v>274</v>
+        <v>6714</v>
       </c>
       <c r="Q35" s="35">
-        <v>1605</v>
+        <v>39114</v>
       </c>
       <c r="R35" s="37">
-        <v>431</v>
+        <v>10601</v>
       </c>
       <c r="S35" s="39">
-        <v>1174</v>
+        <v>28513</v>
       </c>
       <c r="T35" s="41">
-        <v>43</v>
+        <v>1035</v>
       </c>
       <c r="U35" s="43">
-        <v>9</v>
+        <v>233</v>
       </c>
       <c r="V35" s="45">
-        <v>34</v>
+        <v>801</v>
       </c>
       <c r="W35" s="47">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="X35" s="49">
-        <v>9</v>
+        <v>244</v>
       </c>
       <c r="Y35" s="51">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="Z35" s="53">
-        <v>1061</v>
+        <v>25975</v>
       </c>
       <c r="AA35" s="55">
-        <v>442</v>
+        <v>10851</v>
       </c>
       <c r="AB35" s="57">
-        <v>619</v>
+        <v>15124</v>
       </c>
       <c r="AC35" s="59">
-        <v>739</v>
+        <v>18572</v>
       </c>
       <c r="AD35" s="61">
-        <v>208</v>
+        <v>5156</v>
       </c>
       <c r="AE35" s="63">
-        <v>531</v>
+        <v>13416</v>
       </c>
       <c r="AF35" s="65">
         <v>0</v>
@@ -5443,16 +5443,16 @@
         <v>0</v>
       </c>
       <c r="AI35" s="71">
-        <v>326</v>
+        <v>8107</v>
       </c>
       <c r="AJ35" s="73">
-        <v>548</v>
+        <v>12618</v>
       </c>
       <c r="AK35" s="75">
-        <v>-222</v>
+        <v>-4511</v>
       </c>
       <c r="AL35" s="77">
-        <v>36830</v>
+        <v>906576</v>
       </c>
     </row>
     <row r="36">
@@ -5460,94 +5460,94 @@
         <v>48</v>
       </c>
       <c r="B36" s="5">
-        <v>2102</v>
+        <v>43560</v>
       </c>
       <c r="C36" s="7">
-        <v>1704</v>
+        <v>35270</v>
       </c>
       <c r="D36" s="9">
-        <v>398</v>
+        <v>8291</v>
       </c>
       <c r="E36" s="11">
-        <v>10289</v>
+        <v>212736</v>
       </c>
       <c r="F36" s="13">
-        <v>7468</v>
+        <v>154900</v>
       </c>
       <c r="G36" s="15">
-        <v>2821</v>
+        <v>57836</v>
       </c>
       <c r="H36" s="17">
-        <v>1251</v>
+        <v>25909</v>
       </c>
       <c r="I36" s="19">
-        <v>1414</v>
+        <v>29272</v>
       </c>
       <c r="J36" s="21">
-        <v>-163</v>
+        <v>-3363</v>
       </c>
       <c r="K36" s="23">
-        <v>912</v>
+        <v>18850</v>
       </c>
       <c r="L36" s="25">
-        <v>860</v>
+        <v>17811</v>
       </c>
       <c r="M36" s="27">
-        <v>52</v>
+        <v>1039</v>
       </c>
       <c r="N36" s="29">
-        <v>21</v>
+        <v>427</v>
       </c>
       <c r="O36" s="31">
-        <v>37</v>
+        <v>765</v>
       </c>
       <c r="P36" s="33">
-        <v>-16</v>
+        <v>-338</v>
       </c>
       <c r="Q36" s="35">
-        <v>93</v>
+        <v>1953</v>
       </c>
       <c r="R36" s="37">
-        <v>39</v>
+        <v>805</v>
       </c>
       <c r="S36" s="39">
-        <v>54</v>
+        <v>1147</v>
       </c>
       <c r="T36" s="41">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="U36" s="43">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="V36" s="45">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="W36" s="47">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="X36" s="49">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="Y36" s="51">
-        <v>-2</v>
+        <v>-45</v>
       </c>
       <c r="Z36" s="53">
-        <v>197</v>
+        <v>4086</v>
       </c>
       <c r="AA36" s="55">
-        <v>454</v>
+        <v>9382</v>
       </c>
       <c r="AB36" s="57">
-        <v>-257</v>
+        <v>-5296</v>
       </c>
       <c r="AC36" s="59">
-        <v>17</v>
+        <v>349</v>
       </c>
       <c r="AD36" s="61">
-        <v>18</v>
+        <v>381</v>
       </c>
       <c r="AE36" s="63">
-        <v>-2</v>
+        <v>-32</v>
       </c>
       <c r="AF36" s="65">
         <v>0</v>
@@ -5559,16 +5559,16 @@
         <v>0</v>
       </c>
       <c r="AI36" s="71">
-        <v>81</v>
+        <v>1671</v>
       </c>
       <c r="AJ36" s="73">
-        <v>3137</v>
+        <v>64435</v>
       </c>
       <c r="AK36" s="75">
-        <v>-3056</v>
+        <v>-62764</v>
       </c>
       <c r="AL36" s="77">
-        <v>13723</v>
+        <v>283877</v>
       </c>
     </row>
     <row r="37">
@@ -5576,94 +5576,94 @@
         <v>49</v>
       </c>
       <c r="B37" s="5">
-        <v>640</v>
+        <v>13098</v>
       </c>
       <c r="C37" s="7">
-        <v>1080</v>
+        <v>22055</v>
       </c>
       <c r="D37" s="9">
-        <v>-440</v>
+        <v>-8957</v>
       </c>
       <c r="E37" s="11">
-        <v>5029</v>
+        <v>102880</v>
       </c>
       <c r="F37" s="13">
-        <v>4246</v>
+        <v>86955</v>
       </c>
       <c r="G37" s="15">
-        <v>783</v>
+        <v>15924</v>
       </c>
       <c r="H37" s="17">
-        <v>691</v>
+        <v>14146</v>
       </c>
       <c r="I37" s="19">
-        <v>933</v>
+        <v>19087</v>
       </c>
       <c r="J37" s="21">
-        <v>-242</v>
+        <v>-4941</v>
       </c>
       <c r="K37" s="23">
-        <v>433</v>
+        <v>8881</v>
       </c>
       <c r="L37" s="25">
-        <v>490</v>
+        <v>10039</v>
       </c>
       <c r="M37" s="27">
-        <v>-57</v>
+        <v>-1158</v>
       </c>
       <c r="N37" s="29">
-        <v>30</v>
+        <v>619</v>
       </c>
       <c r="O37" s="31">
-        <v>34</v>
+        <v>694</v>
       </c>
       <c r="P37" s="33">
-        <v>-4</v>
+        <v>-75</v>
       </c>
       <c r="Q37" s="35">
-        <v>10</v>
+        <v>215</v>
       </c>
       <c r="R37" s="37">
-        <v>158</v>
+        <v>3211</v>
       </c>
       <c r="S37" s="39">
-        <v>-148</v>
+        <v>-2997</v>
       </c>
       <c r="T37" s="41">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="U37" s="43">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="V37" s="45">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="W37" s="47">
         <v>0</v>
       </c>
       <c r="X37" s="49">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="Y37" s="51">
-        <v>-3</v>
+        <v>-63</v>
       </c>
       <c r="Z37" s="53">
-        <v>208</v>
+        <v>4238</v>
       </c>
       <c r="AA37" s="55">
-        <v>243</v>
+        <v>4985</v>
       </c>
       <c r="AB37" s="57">
-        <v>-36</v>
+        <v>-747</v>
       </c>
       <c r="AC37" s="59">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="AD37" s="61">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="AE37" s="63">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="AF37" s="65">
         <v>0</v>
@@ -5675,16 +5675,16 @@
         <v>0</v>
       </c>
       <c r="AI37" s="71">
-        <v>65</v>
+        <v>1327</v>
       </c>
       <c r="AJ37" s="73">
-        <v>166</v>
+        <v>3353</v>
       </c>
       <c r="AK37" s="75">
-        <v>-101</v>
+        <v>-2026</v>
       </c>
       <c r="AL37" s="77">
-        <v>6425</v>
+        <v>131450</v>
       </c>
     </row>
     <row r="38">
@@ -5692,94 +5692,94 @@
         <v>50</v>
       </c>
       <c r="B38" s="5">
-        <v>2436</v>
+        <v>58019</v>
       </c>
       <c r="C38" s="7">
-        <v>3178</v>
+        <v>75956</v>
       </c>
       <c r="D38" s="9">
-        <v>-742</v>
+        <v>-17937</v>
       </c>
       <c r="E38" s="11">
-        <v>23249</v>
+        <v>558597</v>
       </c>
       <c r="F38" s="13">
-        <v>22389</v>
+        <v>537344</v>
       </c>
       <c r="G38" s="15">
-        <v>861</v>
+        <v>21254</v>
       </c>
       <c r="H38" s="17">
-        <v>2974</v>
+        <v>70541</v>
       </c>
       <c r="I38" s="19">
-        <v>3133</v>
+        <v>75005</v>
       </c>
       <c r="J38" s="21">
-        <v>-159</v>
+        <v>-4464</v>
       </c>
       <c r="K38" s="23">
-        <v>1681</v>
+        <v>40327</v>
       </c>
       <c r="L38" s="25">
-        <v>2037</v>
+        <v>48933</v>
       </c>
       <c r="M38" s="27">
-        <v>-355</v>
+        <v>-8606</v>
       </c>
       <c r="N38" s="29">
-        <v>31</v>
+        <v>740</v>
       </c>
       <c r="O38" s="31">
-        <v>105</v>
+        <v>2484</v>
       </c>
       <c r="P38" s="33">
-        <v>-74</v>
+        <v>-1744</v>
       </c>
       <c r="Q38" s="35">
-        <v>266</v>
+        <v>6373</v>
       </c>
       <c r="R38" s="37">
-        <v>165</v>
+        <v>3895</v>
       </c>
       <c r="S38" s="39">
-        <v>101</v>
+        <v>2478</v>
       </c>
       <c r="T38" s="41">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="U38" s="43">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="V38" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38" s="47">
         <v>0</v>
       </c>
       <c r="X38" s="49">
-        <v>30</v>
+        <v>718</v>
       </c>
       <c r="Y38" s="51">
-        <v>-30</v>
+        <v>-718</v>
       </c>
       <c r="Z38" s="53">
-        <v>876</v>
+        <v>20120</v>
       </c>
       <c r="AA38" s="55">
-        <v>621</v>
+        <v>14747</v>
       </c>
       <c r="AB38" s="57">
-        <v>255</v>
+        <v>5373</v>
       </c>
       <c r="AC38" s="59">
-        <v>118</v>
+        <v>2941</v>
       </c>
       <c r="AD38" s="61">
-        <v>174</v>
+        <v>4190</v>
       </c>
       <c r="AE38" s="63">
-        <v>-56</v>
+        <v>-1249</v>
       </c>
       <c r="AF38" s="65">
         <v>0</v>
@@ -5791,16 +5791,16 @@
         <v>0</v>
       </c>
       <c r="AI38" s="71">
-        <v>337</v>
+        <v>7993</v>
       </c>
       <c r="AJ38" s="73">
-        <v>297</v>
+        <v>6845</v>
       </c>
       <c r="AK38" s="75">
-        <v>41</v>
+        <v>1148</v>
       </c>
       <c r="AL38" s="77">
-        <v>28998</v>
+        <v>695150</v>
       </c>
     </row>
     <row r="39">
@@ -5808,94 +5808,94 @@
         <v>51</v>
       </c>
       <c r="B39" s="5">
-        <v>2405</v>
+        <v>53749</v>
       </c>
       <c r="C39" s="7">
-        <v>2768</v>
+        <v>61282</v>
       </c>
       <c r="D39" s="9">
-        <v>-363</v>
+        <v>-7533</v>
       </c>
       <c r="E39" s="11">
-        <v>18552</v>
+        <v>412856</v>
       </c>
       <c r="F39" s="13">
-        <v>17948</v>
+        <v>400820</v>
       </c>
       <c r="G39" s="15">
-        <v>604</v>
+        <v>12036</v>
       </c>
       <c r="H39" s="17">
-        <v>2464</v>
+        <v>54996</v>
       </c>
       <c r="I39" s="19">
-        <v>2726</v>
+        <v>59921</v>
       </c>
       <c r="J39" s="21">
-        <v>-261</v>
+        <v>-4924</v>
       </c>
       <c r="K39" s="23">
-        <v>1662</v>
+        <v>36914</v>
       </c>
       <c r="L39" s="25">
-        <v>1461</v>
+        <v>32137</v>
       </c>
       <c r="M39" s="27">
-        <v>201</v>
+        <v>4777</v>
       </c>
       <c r="N39" s="29">
-        <v>60</v>
+        <v>1347</v>
       </c>
       <c r="O39" s="31">
-        <v>121</v>
+        <v>2638</v>
       </c>
       <c r="P39" s="33">
-        <v>-61</v>
+        <v>-1290</v>
       </c>
       <c r="Q39" s="35">
-        <v>94</v>
+        <v>2179</v>
       </c>
       <c r="R39" s="37">
-        <v>226</v>
+        <v>5000</v>
       </c>
       <c r="S39" s="39">
-        <v>-132</v>
+        <v>-2821</v>
       </c>
       <c r="T39" s="41">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="U39" s="43">
-        <v>19</v>
+        <v>402</v>
       </c>
       <c r="V39" s="45">
-        <v>-17</v>
+        <v>-369</v>
       </c>
       <c r="W39" s="47">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="X39" s="49">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="Y39" s="51">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="Z39" s="53">
-        <v>537</v>
+        <v>12057</v>
       </c>
       <c r="AA39" s="55">
-        <v>690</v>
+        <v>14932</v>
       </c>
       <c r="AB39" s="57">
-        <v>-153</v>
+        <v>-2876</v>
       </c>
       <c r="AC39" s="59">
-        <v>103</v>
+        <v>2305</v>
       </c>
       <c r="AD39" s="61">
-        <v>202</v>
+        <v>4667</v>
       </c>
       <c r="AE39" s="63">
-        <v>-100</v>
+        <v>-2362</v>
       </c>
       <c r="AF39" s="65">
         <v>0</v>
@@ -5907,16 +5907,16 @@
         <v>0</v>
       </c>
       <c r="AI39" s="71">
-        <v>205</v>
+        <v>4611</v>
       </c>
       <c r="AJ39" s="73">
-        <v>185</v>
+        <v>4190</v>
       </c>
       <c r="AK39" s="75">
-        <v>20</v>
+        <v>421</v>
       </c>
       <c r="AL39" s="77">
-        <v>23626</v>
+        <v>526212</v>
       </c>
     </row>
     <row r="40">
@@ -5924,94 +5924,94 @@
         <v>52</v>
       </c>
       <c r="B40" s="5">
-        <v>2207</v>
+        <v>48218</v>
       </c>
       <c r="C40" s="7">
-        <v>2086</v>
+        <v>45027</v>
       </c>
       <c r="D40" s="9">
-        <v>121</v>
+        <v>3191</v>
       </c>
       <c r="E40" s="11">
-        <v>14690</v>
+        <v>319094</v>
       </c>
       <c r="F40" s="13">
-        <v>14652</v>
+        <v>318873</v>
       </c>
       <c r="G40" s="15">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="H40" s="17">
-        <v>2616</v>
+        <v>56266</v>
       </c>
       <c r="I40" s="19">
-        <v>2797</v>
+        <v>60108</v>
       </c>
       <c r="J40" s="21">
-        <v>-182</v>
+        <v>-3841</v>
       </c>
       <c r="K40" s="23">
-        <v>1326</v>
+        <v>28563</v>
       </c>
       <c r="L40" s="25">
-        <v>1364</v>
+        <v>29338</v>
       </c>
       <c r="M40" s="27">
-        <v>-38</v>
+        <v>-775</v>
       </c>
       <c r="N40" s="29">
-        <v>60</v>
+        <v>1320</v>
       </c>
       <c r="O40" s="31">
-        <v>132</v>
+        <v>2763</v>
       </c>
       <c r="P40" s="33">
-        <v>-72</v>
+        <v>-1443</v>
       </c>
       <c r="Q40" s="35">
-        <v>291</v>
+        <v>6390</v>
       </c>
       <c r="R40" s="37">
-        <v>296</v>
+        <v>6279</v>
       </c>
       <c r="S40" s="39">
-        <v>-5</v>
+        <v>111</v>
       </c>
       <c r="T40" s="41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U40" s="43">
-        <v>28</v>
+        <v>608</v>
       </c>
       <c r="V40" s="45">
-        <v>-28</v>
+        <v>-598</v>
       </c>
       <c r="W40" s="47">
-        <v>11</v>
+        <v>243</v>
       </c>
       <c r="X40" s="49">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="Y40" s="51">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="Z40" s="53">
-        <v>747</v>
+        <v>15831</v>
       </c>
       <c r="AA40" s="55">
-        <v>710</v>
+        <v>15387</v>
       </c>
       <c r="AB40" s="57">
-        <v>37</v>
+        <v>444</v>
       </c>
       <c r="AC40" s="59">
-        <v>179</v>
+        <v>3909</v>
       </c>
       <c r="AD40" s="61">
-        <v>261</v>
+        <v>5617</v>
       </c>
       <c r="AE40" s="63">
-        <v>-82</v>
+        <v>-1708</v>
       </c>
       <c r="AF40" s="65">
         <v>0</v>
@@ -6023,16 +6023,16 @@
         <v>0</v>
       </c>
       <c r="AI40" s="71">
-        <v>107</v>
+        <v>2313</v>
       </c>
       <c r="AJ40" s="73">
-        <v>85</v>
+        <v>1882</v>
       </c>
       <c r="AK40" s="75">
-        <v>22</v>
+        <v>430</v>
       </c>
       <c r="AL40" s="77">
-        <v>19621</v>
+        <v>425890</v>
       </c>
     </row>
     <row r="41">
@@ -6040,94 +6040,94 @@
         <v>53</v>
       </c>
       <c r="B41" s="5">
-        <v>2377</v>
+        <v>49935</v>
       </c>
       <c r="C41" s="7">
-        <v>5325</v>
+        <v>112110</v>
       </c>
       <c r="D41" s="9">
-        <v>-2948</v>
+        <v>-62176</v>
       </c>
       <c r="E41" s="11">
-        <v>24914</v>
+        <v>531128</v>
       </c>
       <c r="F41" s="13">
-        <v>23623</v>
+        <v>504623</v>
       </c>
       <c r="G41" s="15">
-        <v>1291</v>
+        <v>26505</v>
       </c>
       <c r="H41" s="17">
-        <v>3910</v>
+        <v>83280</v>
       </c>
       <c r="I41" s="19">
-        <v>3227</v>
+        <v>67960</v>
       </c>
       <c r="J41" s="21">
-        <v>683</v>
+        <v>15320</v>
       </c>
       <c r="K41" s="23">
-        <v>1692</v>
+        <v>35906</v>
       </c>
       <c r="L41" s="25">
-        <v>1751</v>
+        <v>37107</v>
       </c>
       <c r="M41" s="27">
-        <v>-59</v>
+        <v>-1200</v>
       </c>
       <c r="N41" s="29">
-        <v>242</v>
+        <v>5156</v>
       </c>
       <c r="O41" s="31">
-        <v>114</v>
+        <v>2350</v>
       </c>
       <c r="P41" s="33">
-        <v>128</v>
+        <v>2806</v>
       </c>
       <c r="Q41" s="35">
-        <v>287</v>
+        <v>6149</v>
       </c>
       <c r="R41" s="37">
-        <v>278</v>
+        <v>5783</v>
       </c>
       <c r="S41" s="39">
-        <v>9</v>
+        <v>365</v>
       </c>
       <c r="T41" s="41">
-        <v>58</v>
+        <v>1267</v>
       </c>
       <c r="U41" s="43">
+        <v>994</v>
+      </c>
+      <c r="V41" s="45">
+        <v>273</v>
+      </c>
+      <c r="W41" s="47">
         <v>46</v>
       </c>
-      <c r="V41" s="45">
-        <v>12</v>
-      </c>
-      <c r="W41" s="47">
-        <v>2</v>
-      </c>
       <c r="X41" s="49">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="Y41" s="51">
-        <v>-2</v>
+        <v>-46</v>
       </c>
       <c r="Z41" s="53">
-        <v>1375</v>
+        <v>29227</v>
       </c>
       <c r="AA41" s="55">
-        <v>800</v>
+        <v>16787</v>
       </c>
       <c r="AB41" s="57">
-        <v>575</v>
+        <v>12440</v>
       </c>
       <c r="AC41" s="59">
-        <v>254</v>
+        <v>5529</v>
       </c>
       <c r="AD41" s="61">
-        <v>234</v>
+        <v>4848</v>
       </c>
       <c r="AE41" s="63">
-        <v>20</v>
+        <v>682</v>
       </c>
       <c r="AF41" s="65">
         <v>0</v>
@@ -6139,16 +6139,16 @@
         <v>0</v>
       </c>
       <c r="AI41" s="71">
-        <v>1177</v>
+        <v>24683</v>
       </c>
       <c r="AJ41" s="73">
-        <v>203</v>
+        <v>4332</v>
       </c>
       <c r="AK41" s="75">
-        <v>974</v>
+        <v>20352</v>
       </c>
       <c r="AL41" s="77">
-        <v>32378</v>
+        <v>689026</v>
       </c>
     </row>
     <row r="42">
@@ -6156,94 +6156,94 @@
         <v>54</v>
       </c>
       <c r="B42" s="5">
-        <v>5161</v>
+        <v>104940</v>
       </c>
       <c r="C42" s="7">
-        <v>8303</v>
+        <v>168576</v>
       </c>
       <c r="D42" s="9">
-        <v>-3143</v>
+        <v>-63636</v>
       </c>
       <c r="E42" s="11">
-        <v>24559</v>
+        <v>514772</v>
       </c>
       <c r="F42" s="13">
-        <v>22128</v>
+        <v>466852</v>
       </c>
       <c r="G42" s="15">
-        <v>2431</v>
+        <v>47920</v>
       </c>
       <c r="H42" s="17">
-        <v>3245</v>
+        <v>68494</v>
       </c>
       <c r="I42" s="19">
-        <v>2916</v>
+        <v>60705</v>
       </c>
       <c r="J42" s="21">
-        <v>329</v>
+        <v>7790</v>
       </c>
       <c r="K42" s="23">
-        <v>1347</v>
+        <v>28396</v>
       </c>
       <c r="L42" s="25">
-        <v>1164</v>
+        <v>24556</v>
       </c>
       <c r="M42" s="27">
-        <v>184</v>
+        <v>3840</v>
       </c>
       <c r="N42" s="29">
-        <v>247</v>
+        <v>5203</v>
       </c>
       <c r="O42" s="31">
-        <v>106</v>
+        <v>2082</v>
       </c>
       <c r="P42" s="33">
-        <v>141</v>
+        <v>3121</v>
       </c>
       <c r="Q42" s="35">
-        <v>404</v>
+        <v>8690</v>
       </c>
       <c r="R42" s="37">
-        <v>270</v>
+        <v>5490</v>
       </c>
       <c r="S42" s="39">
-        <v>134</v>
+        <v>3200</v>
       </c>
       <c r="T42" s="41">
-        <v>24</v>
+        <v>522</v>
       </c>
       <c r="U42" s="43">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="V42" s="45">
-        <v>21</v>
+        <v>474</v>
       </c>
       <c r="W42" s="47">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="X42" s="49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y42" s="51">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="Z42" s="53">
-        <v>983</v>
+        <v>20559</v>
       </c>
       <c r="AA42" s="55">
-        <v>1167</v>
+        <v>24165</v>
       </c>
       <c r="AB42" s="57">
-        <v>-184</v>
+        <v>-3606</v>
       </c>
       <c r="AC42" s="59">
-        <v>236</v>
+        <v>5060</v>
       </c>
       <c r="AD42" s="61">
-        <v>207</v>
+        <v>4359</v>
       </c>
       <c r="AE42" s="63">
-        <v>29</v>
+        <v>701</v>
       </c>
       <c r="AF42" s="65">
         <v>0</v>
@@ -6255,16 +6255,16 @@
         <v>0</v>
       </c>
       <c r="AI42" s="71">
-        <v>625</v>
+        <v>12978</v>
       </c>
       <c r="AJ42" s="73">
-        <v>242</v>
+        <v>5052</v>
       </c>
       <c r="AK42" s="75">
-        <v>383</v>
+        <v>7926</v>
       </c>
       <c r="AL42" s="77">
-        <v>33589</v>
+        <v>701184</v>
       </c>
     </row>
     <row r="43">
@@ -6272,94 +6272,94 @@
         <v>55</v>
       </c>
       <c r="B43" s="5">
-        <v>2880</v>
+        <v>52292</v>
       </c>
       <c r="C43" s="7">
-        <v>3706</v>
+        <v>67056</v>
       </c>
       <c r="D43" s="9">
-        <v>-826</v>
+        <v>-14764</v>
       </c>
       <c r="E43" s="11">
-        <v>17021</v>
+        <v>311582</v>
       </c>
       <c r="F43" s="13">
-        <v>16503</v>
+        <v>302074</v>
       </c>
       <c r="G43" s="15">
-        <v>518</v>
+        <v>9507</v>
       </c>
       <c r="H43" s="17">
-        <v>2924</v>
+        <v>53112</v>
       </c>
       <c r="I43" s="19">
-        <v>2338</v>
+        <v>42910</v>
       </c>
       <c r="J43" s="21">
-        <v>586</v>
+        <v>10202</v>
       </c>
       <c r="K43" s="23">
-        <v>566</v>
+        <v>10287</v>
       </c>
       <c r="L43" s="25">
-        <v>781</v>
+        <v>14362</v>
       </c>
       <c r="M43" s="27">
-        <v>-215</v>
+        <v>-4075</v>
       </c>
       <c r="N43" s="29">
-        <v>160</v>
+        <v>2868</v>
       </c>
       <c r="O43" s="31">
-        <v>61</v>
+        <v>1095</v>
       </c>
       <c r="P43" s="33">
-        <v>99</v>
+        <v>1773</v>
       </c>
       <c r="Q43" s="35">
-        <v>562</v>
+        <v>10080</v>
       </c>
       <c r="R43" s="37">
-        <v>425</v>
+        <v>7738</v>
       </c>
       <c r="S43" s="39">
-        <v>136</v>
+        <v>2342</v>
       </c>
       <c r="T43" s="41">
-        <v>60</v>
+        <v>1084</v>
       </c>
       <c r="U43" s="43">
-        <v>55</v>
+        <v>999</v>
       </c>
       <c r="V43" s="45">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="W43" s="47">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="X43" s="49">
         <v>0</v>
       </c>
       <c r="Y43" s="51">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="Z43" s="53">
-        <v>1176</v>
+        <v>21494</v>
       </c>
       <c r="AA43" s="55">
-        <v>753</v>
+        <v>13842</v>
       </c>
       <c r="AB43" s="57">
-        <v>423</v>
+        <v>7652</v>
       </c>
       <c r="AC43" s="59">
-        <v>394</v>
+        <v>7172</v>
       </c>
       <c r="AD43" s="61">
-        <v>264</v>
+        <v>4873</v>
       </c>
       <c r="AE43" s="63">
-        <v>131</v>
+        <v>2299</v>
       </c>
       <c r="AF43" s="65">
         <v>0</v>
@@ -6371,16 +6371,16 @@
         <v>0</v>
       </c>
       <c r="AI43" s="71">
-        <v>244</v>
+        <v>4511</v>
       </c>
       <c r="AJ43" s="73">
-        <v>522</v>
+        <v>9457</v>
       </c>
       <c r="AK43" s="75">
-        <v>-278</v>
+        <v>-4946</v>
       </c>
       <c r="AL43" s="77">
-        <v>23069</v>
+        <v>421496</v>
       </c>
     </row>
     <row r="44">
@@ -6388,94 +6388,94 @@
         <v>56</v>
       </c>
       <c r="B44" s="5">
-        <v>3638</v>
+        <v>56447</v>
       </c>
       <c r="C44" s="7">
-        <v>5880</v>
+        <v>89817</v>
       </c>
       <c r="D44" s="9">
-        <v>-2242</v>
+        <v>-33370</v>
       </c>
       <c r="E44" s="11">
-        <v>8923</v>
+        <v>138808</v>
       </c>
       <c r="F44" s="13">
-        <v>8634</v>
+        <v>132475</v>
       </c>
       <c r="G44" s="15">
-        <v>289</v>
+        <v>6332</v>
       </c>
       <c r="H44" s="17">
-        <v>2308</v>
+        <v>35468</v>
       </c>
       <c r="I44" s="19">
-        <v>3434</v>
+        <v>53062</v>
       </c>
       <c r="J44" s="21">
-        <v>-1126</v>
+        <v>-17594</v>
       </c>
       <c r="K44" s="23">
-        <v>1242</v>
+        <v>19109</v>
       </c>
       <c r="L44" s="25">
-        <v>2349</v>
+        <v>37247</v>
       </c>
       <c r="M44" s="27">
-        <v>-1107</v>
+        <v>-18138</v>
       </c>
       <c r="N44" s="29">
-        <v>22</v>
+        <v>327</v>
       </c>
       <c r="O44" s="31">
-        <v>37</v>
+        <v>545</v>
       </c>
       <c r="P44" s="33">
-        <v>-16</v>
+        <v>-219</v>
       </c>
       <c r="Q44" s="35">
-        <v>59</v>
+        <v>868</v>
       </c>
       <c r="R44" s="37">
-        <v>119</v>
+        <v>1741</v>
       </c>
       <c r="S44" s="39">
-        <v>-60</v>
+        <v>-874</v>
       </c>
       <c r="T44" s="41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U44" s="43">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V44" s="45">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="W44" s="47">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="X44" s="49">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="Y44" s="51">
-        <v>-3</v>
+        <v>-39</v>
       </c>
       <c r="Z44" s="53">
-        <v>878</v>
+        <v>13448</v>
       </c>
       <c r="AA44" s="55">
-        <v>800</v>
+        <v>11642</v>
       </c>
       <c r="AB44" s="57">
-        <v>78</v>
+        <v>1807</v>
       </c>
       <c r="AC44" s="59">
-        <v>107</v>
+        <v>1702</v>
       </c>
       <c r="AD44" s="61">
-        <v>125</v>
+        <v>1829</v>
       </c>
       <c r="AE44" s="63">
-        <v>-17</v>
+        <v>-127</v>
       </c>
       <c r="AF44" s="65">
         <v>0</v>
@@ -6487,16 +6487,16 @@
         <v>0</v>
       </c>
       <c r="AI44" s="71">
-        <v>3300</v>
+        <v>48047</v>
       </c>
       <c r="AJ44" s="73">
-        <v>221</v>
+        <v>3415</v>
       </c>
       <c r="AK44" s="75">
-        <v>3079</v>
+        <v>44632</v>
       </c>
       <c r="AL44" s="77">
-        <v>18170</v>
+        <v>278770</v>
       </c>
     </row>
     <row r="45">
@@ -6504,94 +6504,94 @@
         <v>57</v>
       </c>
       <c r="B45" s="5">
-        <v>4007</v>
+        <v>78801</v>
       </c>
       <c r="C45" s="7">
-        <v>4778</v>
+        <v>94348</v>
       </c>
       <c r="D45" s="9">
-        <v>-771</v>
+        <v>-15547</v>
       </c>
       <c r="E45" s="11">
-        <v>4754</v>
+        <v>93516</v>
       </c>
       <c r="F45" s="13">
-        <v>3775</v>
+        <v>74060</v>
       </c>
       <c r="G45" s="15">
-        <v>978</v>
+        <v>19455</v>
       </c>
       <c r="H45" s="17">
-        <v>2414</v>
+        <v>47917</v>
       </c>
       <c r="I45" s="19">
-        <v>2880</v>
+        <v>56156</v>
       </c>
       <c r="J45" s="21">
-        <v>-466</v>
+        <v>-8239</v>
       </c>
       <c r="K45" s="23">
-        <v>1527</v>
+        <v>29974</v>
       </c>
       <c r="L45" s="25">
-        <v>2364</v>
+        <v>45929</v>
       </c>
       <c r="M45" s="27">
-        <v>-837</v>
+        <v>-15955</v>
       </c>
       <c r="N45" s="29">
-        <v>17</v>
+        <v>325</v>
       </c>
       <c r="O45" s="31">
-        <v>48</v>
+        <v>956</v>
       </c>
       <c r="P45" s="33">
-        <v>-32</v>
+        <v>-632</v>
       </c>
       <c r="Q45" s="35">
-        <v>63</v>
+        <v>1279</v>
       </c>
       <c r="R45" s="37">
-        <v>87</v>
+        <v>1702</v>
       </c>
       <c r="S45" s="39">
-        <v>-24</v>
+        <v>-423</v>
       </c>
       <c r="T45" s="41">
         <v>0</v>
       </c>
       <c r="U45" s="43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V45" s="45">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="W45" s="47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X45" s="49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y45" s="51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z45" s="53">
-        <v>687</v>
+        <v>14122</v>
       </c>
       <c r="AA45" s="55">
-        <v>360</v>
+        <v>7146</v>
       </c>
       <c r="AB45" s="57">
-        <v>327</v>
+        <v>6976</v>
       </c>
       <c r="AC45" s="59">
-        <v>120</v>
+        <v>2214</v>
       </c>
       <c r="AD45" s="61">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="AE45" s="63">
-        <v>100</v>
+        <v>1801</v>
       </c>
       <c r="AF45" s="65">
         <v>0</v>
@@ -6603,16 +6603,16 @@
         <v>0</v>
       </c>
       <c r="AI45" s="71">
-        <v>1816</v>
+        <v>38091</v>
       </c>
       <c r="AJ45" s="73">
-        <v>1558</v>
+        <v>33761</v>
       </c>
       <c r="AK45" s="75">
-        <v>258</v>
+        <v>4331</v>
       </c>
       <c r="AL45" s="77">
-        <v>12991</v>
+        <v>258325</v>
       </c>
     </row>
     <row r="46">
@@ -6620,94 +6620,94 @@
         <v>58</v>
       </c>
       <c r="B46" s="5">
-        <v>2614</v>
+        <v>60654</v>
       </c>
       <c r="C46" s="7">
-        <v>3056</v>
+        <v>70853</v>
       </c>
       <c r="D46" s="9">
-        <v>-441</v>
+        <v>-10199</v>
       </c>
       <c r="E46" s="11">
-        <v>3899</v>
+        <v>90792</v>
       </c>
       <c r="F46" s="13">
-        <v>3138</v>
+        <v>73082</v>
       </c>
       <c r="G46" s="15">
-        <v>761</v>
+        <v>17711</v>
       </c>
       <c r="H46" s="17">
-        <v>1684</v>
+        <v>39073</v>
       </c>
       <c r="I46" s="19">
-        <v>2007</v>
+        <v>46653</v>
       </c>
       <c r="J46" s="21">
-        <v>-322</v>
+        <v>-7580</v>
       </c>
       <c r="K46" s="23">
-        <v>675</v>
+        <v>15647</v>
       </c>
       <c r="L46" s="25">
-        <v>936</v>
+        <v>21756</v>
       </c>
       <c r="M46" s="27">
-        <v>-260</v>
+        <v>-6109</v>
       </c>
       <c r="N46" s="29">
+        <v>380</v>
+      </c>
+      <c r="O46" s="31">
+        <v>1580</v>
+      </c>
+      <c r="P46" s="33">
+        <v>-1200</v>
+      </c>
+      <c r="Q46" s="35">
+        <v>625</v>
+      </c>
+      <c r="R46" s="37">
+        <v>10611</v>
+      </c>
+      <c r="S46" s="39">
+        <v>-9986</v>
+      </c>
+      <c r="T46" s="41">
+        <v>22</v>
+      </c>
+      <c r="U46" s="43">
+        <v>25</v>
+      </c>
+      <c r="V46" s="45">
+        <v>-2</v>
+      </c>
+      <c r="W46" s="47">
+        <v>6</v>
+      </c>
+      <c r="X46" s="49">
         <v>16</v>
       </c>
-      <c r="O46" s="31">
-        <v>68</v>
-      </c>
-      <c r="P46" s="33">
-        <v>-52</v>
-      </c>
-      <c r="Q46" s="35">
-        <v>27</v>
-      </c>
-      <c r="R46" s="37">
-        <v>458</v>
-      </c>
-      <c r="S46" s="39">
-        <v>-431</v>
-      </c>
-      <c r="T46" s="41">
-        <v>1</v>
-      </c>
-      <c r="U46" s="43">
-        <v>1</v>
-      </c>
-      <c r="V46" s="45">
-        <v>0</v>
-      </c>
-      <c r="W46" s="47">
-        <v>0</v>
-      </c>
-      <c r="X46" s="49">
-        <v>1</v>
-      </c>
       <c r="Y46" s="51">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="Z46" s="53">
-        <v>944</v>
+        <v>21908</v>
       </c>
       <c r="AA46" s="55">
-        <v>494</v>
+        <v>11548</v>
       </c>
       <c r="AB46" s="57">
-        <v>449</v>
+        <v>10360</v>
       </c>
       <c r="AC46" s="59">
-        <v>21</v>
+        <v>484</v>
       </c>
       <c r="AD46" s="61">
-        <v>48</v>
+        <v>1117</v>
       </c>
       <c r="AE46" s="63">
-        <v>-27</v>
+        <v>-633</v>
       </c>
       <c r="AF46" s="65">
         <v>0</v>
@@ -6719,16 +6719,16 @@
         <v>0</v>
       </c>
       <c r="AI46" s="71">
-        <v>13</v>
+        <v>305</v>
       </c>
       <c r="AJ46" s="73">
-        <v>10</v>
+        <v>236</v>
       </c>
       <c r="AK46" s="75">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="AL46" s="77">
-        <v>8211</v>
+        <v>190824</v>
       </c>
     </row>
     <row r="47">
@@ -6736,94 +6736,94 @@
         <v>59</v>
       </c>
       <c r="B47" s="5">
-        <v>1786</v>
+        <v>46657</v>
       </c>
       <c r="C47" s="7">
-        <v>1328</v>
+        <v>34926</v>
       </c>
       <c r="D47" s="9">
-        <v>458</v>
+        <v>11731</v>
       </c>
       <c r="E47" s="11">
-        <v>2760</v>
+        <v>71663</v>
       </c>
       <c r="F47" s="13">
-        <v>2276</v>
+        <v>59165</v>
       </c>
       <c r="G47" s="15">
-        <v>484</v>
+        <v>12497</v>
       </c>
       <c r="H47" s="17">
-        <v>739</v>
+        <v>19302</v>
       </c>
       <c r="I47" s="19">
-        <v>1677</v>
+        <v>43418</v>
       </c>
       <c r="J47" s="21">
-        <v>-938</v>
+        <v>-24116</v>
       </c>
       <c r="K47" s="23">
-        <v>496</v>
+        <v>12921</v>
       </c>
       <c r="L47" s="25">
-        <v>590</v>
+        <v>15333</v>
       </c>
       <c r="M47" s="27">
-        <v>-94</v>
+        <v>-2412</v>
       </c>
       <c r="N47" s="29">
-        <v>21</v>
+        <v>552</v>
       </c>
       <c r="O47" s="31">
-        <v>198</v>
+        <v>5107</v>
       </c>
       <c r="P47" s="33">
-        <v>-176</v>
+        <v>-4555</v>
       </c>
       <c r="Q47" s="35">
-        <v>28</v>
+        <v>741</v>
       </c>
       <c r="R47" s="37">
-        <v>391</v>
+        <v>10101</v>
       </c>
       <c r="S47" s="39">
-        <v>-362</v>
+        <v>-9360</v>
       </c>
       <c r="T47" s="41">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="U47" s="43">
-        <v>107</v>
+        <v>2701</v>
       </c>
       <c r="V47" s="45">
-        <v>-106</v>
+        <v>-2686</v>
       </c>
       <c r="W47" s="47">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="X47" s="49">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="Y47" s="51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z47" s="53">
-        <v>168</v>
+        <v>4408</v>
       </c>
       <c r="AA47" s="55">
-        <v>337</v>
+        <v>8776</v>
       </c>
       <c r="AB47" s="57">
-        <v>-169</v>
+        <v>-4369</v>
       </c>
       <c r="AC47" s="59">
-        <v>24</v>
+        <v>630</v>
       </c>
       <c r="AD47" s="61">
-        <v>54</v>
+        <v>1366</v>
       </c>
       <c r="AE47" s="63">
-        <v>-29</v>
+        <v>-736</v>
       </c>
       <c r="AF47" s="65">
         <v>0</v>
@@ -6835,16 +6835,16 @@
         <v>0</v>
       </c>
       <c r="AI47" s="71">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="AJ47" s="73">
-        <v>13</v>
+        <v>348</v>
       </c>
       <c r="AK47" s="75">
-        <v>-4</v>
+        <v>-112</v>
       </c>
       <c r="AL47" s="77">
-        <v>5294</v>
+        <v>137858</v>
       </c>
     </row>
     <row r="48">
@@ -6852,94 +6852,94 @@
         <v>60</v>
       </c>
       <c r="B48" s="5">
-        <v>1728</v>
+        <v>51775</v>
       </c>
       <c r="C48" s="7">
-        <v>2305</v>
+        <v>69864</v>
       </c>
       <c r="D48" s="9">
-        <v>-577</v>
+        <v>-18089</v>
       </c>
       <c r="E48" s="11">
-        <v>5707</v>
+        <v>172299</v>
       </c>
       <c r="F48" s="13">
-        <v>4178</v>
+        <v>126316</v>
       </c>
       <c r="G48" s="15">
-        <v>1529</v>
+        <v>45983</v>
       </c>
       <c r="H48" s="17">
-        <v>1478</v>
+        <v>44477</v>
       </c>
       <c r="I48" s="19">
-        <v>2425</v>
+        <v>72253</v>
       </c>
       <c r="J48" s="21">
-        <v>-947</v>
+        <v>-27776</v>
       </c>
       <c r="K48" s="23">
-        <v>765</v>
+        <v>22939</v>
       </c>
       <c r="L48" s="25">
-        <v>718</v>
+        <v>21661</v>
       </c>
       <c r="M48" s="27">
-        <v>47</v>
+        <v>1277</v>
       </c>
       <c r="N48" s="29">
-        <v>40</v>
+        <v>1209</v>
       </c>
       <c r="O48" s="31">
-        <v>166</v>
+        <v>4965</v>
       </c>
       <c r="P48" s="33">
-        <v>-125</v>
+        <v>-3756</v>
       </c>
       <c r="Q48" s="35">
-        <v>158</v>
+        <v>4880</v>
       </c>
       <c r="R48" s="37">
-        <v>637</v>
+        <v>18964</v>
       </c>
       <c r="S48" s="39">
-        <v>-479</v>
+        <v>-14084</v>
       </c>
       <c r="T48" s="41">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="U48" s="43">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="V48" s="45">
-        <v>-1</v>
+        <v>-26</v>
       </c>
       <c r="W48" s="47">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="X48" s="49">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="Y48" s="51">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="Z48" s="53">
-        <v>405</v>
+        <v>12170</v>
       </c>
       <c r="AA48" s="55">
-        <v>762</v>
+        <v>22412</v>
       </c>
       <c r="AB48" s="57">
-        <v>-357</v>
+        <v>-10242</v>
       </c>
       <c r="AC48" s="59">
-        <v>108</v>
+        <v>3205</v>
       </c>
       <c r="AD48" s="61">
-        <v>140</v>
+        <v>4167</v>
       </c>
       <c r="AE48" s="63">
-        <v>-32</v>
+        <v>-962</v>
       </c>
       <c r="AF48" s="65">
         <v>0</v>
@@ -6951,16 +6951,16 @@
         <v>0</v>
       </c>
       <c r="AI48" s="71">
-        <v>36</v>
+        <v>1096</v>
       </c>
       <c r="AJ48" s="73">
-        <v>42</v>
+        <v>1214</v>
       </c>
       <c r="AK48" s="75">
-        <v>-5</v>
+        <v>-118</v>
       </c>
       <c r="AL48" s="77">
-        <v>8950</v>
+        <v>269647</v>
       </c>
     </row>
     <row r="49">
@@ -6968,94 +6968,94 @@
         <v>61</v>
       </c>
       <c r="B49" s="5">
-        <v>1593</v>
+        <v>50018</v>
       </c>
       <c r="C49" s="7">
-        <v>1361</v>
+        <v>42504</v>
       </c>
       <c r="D49" s="9">
-        <v>232</v>
+        <v>7515</v>
       </c>
       <c r="E49" s="11">
-        <v>1242</v>
+        <v>38766</v>
       </c>
       <c r="F49" s="13">
-        <v>1216</v>
+        <v>38282</v>
       </c>
       <c r="G49" s="15">
-        <v>26</v>
+        <v>484</v>
       </c>
       <c r="H49" s="17">
-        <v>533</v>
+        <v>16705</v>
       </c>
       <c r="I49" s="19">
-        <v>810</v>
+        <v>25329</v>
       </c>
       <c r="J49" s="21">
-        <v>-277</v>
+        <v>-8624</v>
       </c>
       <c r="K49" s="23">
-        <v>238</v>
+        <v>7478</v>
       </c>
       <c r="L49" s="25">
-        <v>215</v>
+        <v>6726</v>
       </c>
       <c r="M49" s="27">
-        <v>23</v>
+        <v>751</v>
       </c>
       <c r="N49" s="29">
-        <v>35</v>
+        <v>1116</v>
       </c>
       <c r="O49" s="31">
-        <v>66</v>
+        <v>2097</v>
       </c>
       <c r="P49" s="33">
-        <v>-31</v>
+        <v>-981</v>
       </c>
       <c r="Q49" s="35">
-        <v>105</v>
+        <v>3270</v>
       </c>
       <c r="R49" s="37">
-        <v>91</v>
+        <v>2821</v>
       </c>
       <c r="S49" s="39">
-        <v>14</v>
+        <v>450</v>
       </c>
       <c r="T49" s="41">
+        <v>33</v>
+      </c>
+      <c r="U49" s="43">
+        <v>43</v>
+      </c>
+      <c r="V49" s="45">
+        <v>-9</v>
+      </c>
+      <c r="W49" s="47">
+        <v>12</v>
+      </c>
+      <c r="X49" s="49">
         <v>1</v>
       </c>
-      <c r="U49" s="43">
-        <v>1</v>
-      </c>
-      <c r="V49" s="45">
-        <v>0</v>
-      </c>
-      <c r="W49" s="47">
-        <v>0</v>
-      </c>
-      <c r="X49" s="49">
-        <v>0</v>
-      </c>
       <c r="Y49" s="51">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z49" s="53">
-        <v>130</v>
+        <v>4065</v>
       </c>
       <c r="AA49" s="55">
-        <v>339</v>
+        <v>10602</v>
       </c>
       <c r="AB49" s="57">
-        <v>-209</v>
+        <v>-6536</v>
       </c>
       <c r="AC49" s="59">
-        <v>23</v>
+        <v>730</v>
       </c>
       <c r="AD49" s="61">
-        <v>97</v>
+        <v>3040</v>
       </c>
       <c r="AE49" s="63">
-        <v>-74</v>
+        <v>-2310</v>
       </c>
       <c r="AF49" s="65">
         <v>0</v>
@@ -7067,16 +7067,16 @@
         <v>0</v>
       </c>
       <c r="AI49" s="71">
-        <v>21</v>
+        <v>664</v>
       </c>
       <c r="AJ49" s="73">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="AK49" s="75">
-        <v>19</v>
+        <v>626</v>
       </c>
       <c r="AL49" s="77">
-        <v>3387</v>
+        <v>106154</v>
       </c>
     </row>
     <row r="50">
@@ -7084,94 +7084,94 @@
         <v>62</v>
       </c>
       <c r="B50" s="5">
-        <v>1775</v>
+        <v>58509</v>
       </c>
       <c r="C50" s="7">
-        <v>1927</v>
+        <v>63371</v>
       </c>
       <c r="D50" s="9">
-        <v>-152</v>
+        <v>-4862</v>
       </c>
       <c r="E50" s="11">
-        <v>3153</v>
+        <v>103583</v>
       </c>
       <c r="F50" s="13">
-        <v>2279</v>
+        <v>74988</v>
       </c>
       <c r="G50" s="15">
-        <v>873</v>
+        <v>28595</v>
       </c>
       <c r="H50" s="17">
-        <v>784</v>
+        <v>25939</v>
       </c>
       <c r="I50" s="19">
-        <v>1529</v>
+        <v>50446</v>
       </c>
       <c r="J50" s="21">
-        <v>-745</v>
+        <v>-24508</v>
       </c>
       <c r="K50" s="23">
-        <v>334</v>
+        <v>11011</v>
       </c>
       <c r="L50" s="25">
-        <v>362</v>
+        <v>11966</v>
       </c>
       <c r="M50" s="27">
-        <v>-28</v>
+        <v>-956</v>
       </c>
       <c r="N50" s="29">
-        <v>7</v>
+        <v>238</v>
       </c>
       <c r="O50" s="31">
-        <v>71</v>
+        <v>2338</v>
       </c>
       <c r="P50" s="33">
-        <v>-64</v>
+        <v>-2101</v>
       </c>
       <c r="Q50" s="35">
-        <v>106</v>
+        <v>3469</v>
       </c>
       <c r="R50" s="37">
-        <v>246</v>
+        <v>8183</v>
       </c>
       <c r="S50" s="39">
-        <v>-141</v>
+        <v>-4715</v>
       </c>
       <c r="T50" s="41">
         <v>0</v>
       </c>
       <c r="U50" s="43">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="V50" s="45">
-        <v>-1</v>
+        <v>-21</v>
       </c>
       <c r="W50" s="47">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="X50" s="49">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="Y50" s="51">
-        <v>-1</v>
+        <v>-41</v>
       </c>
       <c r="Z50" s="53">
-        <v>234</v>
+        <v>7753</v>
       </c>
       <c r="AA50" s="55">
-        <v>660</v>
+        <v>21719</v>
       </c>
       <c r="AB50" s="57">
-        <v>-426</v>
+        <v>-13966</v>
       </c>
       <c r="AC50" s="59">
-        <v>101</v>
+        <v>3411</v>
       </c>
       <c r="AD50" s="61">
-        <v>186</v>
+        <v>6121</v>
       </c>
       <c r="AE50" s="63">
-        <v>-85</v>
+        <v>-2710</v>
       </c>
       <c r="AF50" s="65">
         <v>0</v>
@@ -7183,16 +7183,16 @@
         <v>0</v>
       </c>
       <c r="AI50" s="71">
-        <v>36</v>
+        <v>1187</v>
       </c>
       <c r="AJ50" s="73">
-        <v>12</v>
+        <v>412</v>
       </c>
       <c r="AK50" s="75">
-        <v>23</v>
+        <v>774</v>
       </c>
       <c r="AL50" s="77">
-        <v>5747</v>
+        <v>189217</v>
       </c>
     </row>
     <row r="51">
@@ -7200,115 +7200,115 @@
         <v>63</v>
       </c>
       <c r="B51" s="5">
-        <v>1037</v>
+        <v>36460</v>
       </c>
       <c r="C51" s="7">
-        <v>822</v>
+        <v>28967</v>
       </c>
       <c r="D51" s="9">
-        <v>216</v>
+        <v>7493</v>
       </c>
       <c r="E51" s="11">
-        <v>686</v>
+        <v>23818</v>
       </c>
       <c r="F51" s="13">
-        <v>768</v>
+        <v>26967</v>
       </c>
       <c r="G51" s="15">
-        <v>-82</v>
+        <v>-3149</v>
       </c>
       <c r="H51" s="17">
-        <v>864</v>
+        <v>30543</v>
       </c>
       <c r="I51" s="19">
-        <v>997</v>
+        <v>34889</v>
       </c>
       <c r="J51" s="21">
-        <v>-134</v>
+        <v>-4346</v>
       </c>
       <c r="K51" s="23">
-        <v>340</v>
+        <v>11990</v>
       </c>
       <c r="L51" s="25">
-        <v>405</v>
+        <v>14231</v>
       </c>
       <c r="M51" s="27">
-        <v>-64</v>
+        <v>-2240</v>
       </c>
       <c r="N51" s="29">
-        <v>42</v>
+        <v>1472</v>
       </c>
       <c r="O51" s="31">
-        <v>42</v>
+        <v>1460</v>
       </c>
       <c r="P51" s="33">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q51" s="35">
-        <v>94</v>
+        <v>3387</v>
       </c>
       <c r="R51" s="37">
-        <v>126</v>
+        <v>4423</v>
       </c>
       <c r="S51" s="39">
-        <v>-32</v>
+        <v>-1036</v>
       </c>
       <c r="T51" s="41">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="U51" s="43">
-        <v>22</v>
+        <v>723</v>
       </c>
       <c r="V51" s="45">
-        <v>-19</v>
+        <v>-639</v>
       </c>
       <c r="W51" s="47">
+        <v>39</v>
+      </c>
+      <c r="X51" s="49">
+        <v>18</v>
+      </c>
+      <c r="Y51" s="51">
+        <v>21</v>
+      </c>
+      <c r="Z51" s="53">
+        <v>11262</v>
+      </c>
+      <c r="AA51" s="55">
+        <v>8189</v>
+      </c>
+      <c r="AB51" s="57">
+        <v>3073</v>
+      </c>
+      <c r="AC51" s="59">
+        <v>2308</v>
+      </c>
+      <c r="AD51" s="61">
+        <v>5845</v>
+      </c>
+      <c r="AE51" s="63">
+        <v>-3537</v>
+      </c>
+      <c r="AF51" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="69">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="71">
+        <v>33</v>
+      </c>
+      <c r="AJ51" s="73">
+        <v>32</v>
+      </c>
+      <c r="AK51" s="75">
         <v>1</v>
       </c>
-      <c r="X51" s="49">
-        <v>1</v>
-      </c>
-      <c r="Y51" s="51">
-        <v>1</v>
-      </c>
-      <c r="Z51" s="53">
-        <v>318</v>
-      </c>
-      <c r="AA51" s="55">
-        <v>235</v>
-      </c>
-      <c r="AB51" s="57">
-        <v>83</v>
-      </c>
-      <c r="AC51" s="59">
-        <v>65</v>
-      </c>
-      <c r="AD51" s="61">
-        <v>167</v>
-      </c>
-      <c r="AE51" s="63">
-        <v>-102</v>
-      </c>
-      <c r="AF51" s="65">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="67">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="69">
-        <v>0</v>
-      </c>
-      <c r="AI51" s="71">
-        <v>1</v>
-      </c>
-      <c r="AJ51" s="73">
-        <v>1</v>
-      </c>
-      <c r="AK51" s="75">
-        <v>0</v>
-      </c>
       <c r="AL51" s="77">
-        <v>2588</v>
+        <v>90854</v>
       </c>
     </row>
     <row r="52">
@@ -7316,94 +7316,94 @@
         <v>64</v>
       </c>
       <c r="B52" s="5">
-        <v>1023</v>
+        <v>38114</v>
       </c>
       <c r="C52" s="7">
-        <v>681</v>
+        <v>25645</v>
       </c>
       <c r="D52" s="9">
+        <v>12469</v>
+      </c>
+      <c r="E52" s="11">
+        <v>53415</v>
+      </c>
+      <c r="F52" s="13">
+        <v>41514</v>
+      </c>
+      <c r="G52" s="15">
+        <v>11901</v>
+      </c>
+      <c r="H52" s="17">
+        <v>29644</v>
+      </c>
+      <c r="I52" s="19">
+        <v>53518</v>
+      </c>
+      <c r="J52" s="21">
+        <v>-23874</v>
+      </c>
+      <c r="K52" s="23">
+        <v>9948</v>
+      </c>
+      <c r="L52" s="25">
+        <v>9605</v>
+      </c>
+      <c r="M52" s="27">
         <v>343</v>
       </c>
-      <c r="E52" s="11">
-        <v>1418</v>
-      </c>
-      <c r="F52" s="13">
-        <v>1115</v>
-      </c>
-      <c r="G52" s="15">
-        <v>303</v>
-      </c>
-      <c r="H52" s="17">
-        <v>785</v>
-      </c>
-      <c r="I52" s="19">
-        <v>1417</v>
-      </c>
-      <c r="J52" s="21">
-        <v>-632</v>
-      </c>
-      <c r="K52" s="23">
-        <v>265</v>
-      </c>
-      <c r="L52" s="25">
-        <v>256</v>
-      </c>
-      <c r="M52" s="27">
-        <v>9</v>
-      </c>
       <c r="N52" s="29">
-        <v>33</v>
+        <v>1263</v>
       </c>
       <c r="O52" s="31">
-        <v>164</v>
+        <v>6117</v>
       </c>
       <c r="P52" s="33">
-        <v>-131</v>
+        <v>-4854</v>
       </c>
       <c r="Q52" s="35">
-        <v>96</v>
+        <v>3590</v>
       </c>
       <c r="R52" s="37">
-        <v>484</v>
+        <v>18238</v>
       </c>
       <c r="S52" s="39">
-        <v>-388</v>
+        <v>-14649</v>
       </c>
       <c r="T52" s="41">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="U52" s="43">
-        <v>11</v>
+        <v>395</v>
       </c>
       <c r="V52" s="45">
-        <v>-4</v>
+        <v>-110</v>
       </c>
       <c r="W52" s="47">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="X52" s="49">
-        <v>8</v>
+        <v>333</v>
       </c>
       <c r="Y52" s="51">
-        <v>-8</v>
+        <v>-307</v>
       </c>
       <c r="Z52" s="53">
-        <v>232</v>
+        <v>8698</v>
       </c>
       <c r="AA52" s="55">
-        <v>390</v>
+        <v>14694</v>
       </c>
       <c r="AB52" s="57">
-        <v>-158</v>
+        <v>-5996</v>
       </c>
       <c r="AC52" s="59">
-        <v>152</v>
+        <v>5835</v>
       </c>
       <c r="AD52" s="61">
-        <v>105</v>
+        <v>4136</v>
       </c>
       <c r="AE52" s="63">
-        <v>47</v>
+        <v>1699</v>
       </c>
       <c r="AF52" s="65">
         <v>0</v>
@@ -7415,16 +7415,16 @@
         <v>0</v>
       </c>
       <c r="AI52" s="71">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="AJ52" s="73">
-        <v>18</v>
+        <v>673</v>
       </c>
       <c r="AK52" s="75">
-        <v>-14</v>
+        <v>-496</v>
       </c>
       <c r="AL52" s="77">
-        <v>3231</v>
+        <v>121350</v>
       </c>
     </row>
     <row r="53">
@@ -7432,94 +7432,94 @@
         <v>65</v>
       </c>
       <c r="B53" s="5">
-        <v>877</v>
+        <v>39439</v>
       </c>
       <c r="C53" s="7">
-        <v>652</v>
+        <v>29223</v>
       </c>
       <c r="D53" s="9">
-        <v>225</v>
+        <v>10216</v>
       </c>
       <c r="E53" s="11">
-        <v>459</v>
+        <v>20577</v>
       </c>
       <c r="F53" s="13">
-        <v>652</v>
+        <v>29628</v>
       </c>
       <c r="G53" s="15">
-        <v>-193</v>
+        <v>-9052</v>
       </c>
       <c r="H53" s="17">
-        <v>687</v>
+        <v>31103</v>
       </c>
       <c r="I53" s="19">
-        <v>722</v>
+        <v>32449</v>
       </c>
       <c r="J53" s="21">
-        <v>-36</v>
+        <v>-1346</v>
       </c>
       <c r="K53" s="23">
-        <v>180</v>
+        <v>8129</v>
       </c>
       <c r="L53" s="25">
-        <v>241</v>
+        <v>10814</v>
       </c>
       <c r="M53" s="27">
-        <v>-61</v>
+        <v>-2684</v>
       </c>
       <c r="N53" s="29">
-        <v>49</v>
+        <v>2173</v>
       </c>
       <c r="O53" s="31">
-        <v>118</v>
+        <v>5294</v>
       </c>
       <c r="P53" s="33">
-        <v>-69</v>
+        <v>-3121</v>
       </c>
       <c r="Q53" s="35">
-        <v>128</v>
+        <v>5764</v>
       </c>
       <c r="R53" s="37">
-        <v>125</v>
+        <v>5669</v>
       </c>
       <c r="S53" s="39">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="T53" s="41">
+        <v>54</v>
+      </c>
+      <c r="U53" s="43">
         <v>1</v>
       </c>
-      <c r="U53" s="43">
-        <v>0</v>
-      </c>
       <c r="V53" s="45">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="W53" s="47">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="X53" s="49">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="Y53" s="51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z53" s="53">
-        <v>223</v>
+        <v>10129</v>
       </c>
       <c r="AA53" s="55">
-        <v>156</v>
+        <v>6929</v>
       </c>
       <c r="AB53" s="57">
-        <v>67</v>
+        <v>3200</v>
       </c>
       <c r="AC53" s="59">
-        <v>105</v>
+        <v>4770</v>
       </c>
       <c r="AD53" s="61">
-        <v>81</v>
+        <v>3658</v>
       </c>
       <c r="AE53" s="63">
-        <v>23</v>
+        <v>1112</v>
       </c>
       <c r="AF53" s="65">
         <v>0</v>
@@ -7531,16 +7531,16 @@
         <v>0</v>
       </c>
       <c r="AI53" s="71">
-        <v>10</v>
+        <v>470</v>
       </c>
       <c r="AJ53" s="73">
-        <v>6</v>
+        <v>289</v>
       </c>
       <c r="AK53" s="75">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="AL53" s="77">
-        <v>2033</v>
+        <v>91588</v>
       </c>
     </row>
     <row r="54">
@@ -7548,94 +7548,94 @@
         <v>66</v>
       </c>
       <c r="B54" s="5">
-        <v>1037</v>
+        <v>44560</v>
       </c>
       <c r="C54" s="7">
-        <v>666</v>
+        <v>28639</v>
       </c>
       <c r="D54" s="9">
-        <v>371</v>
+        <v>15921</v>
       </c>
       <c r="E54" s="11">
-        <v>751</v>
+        <v>32484</v>
       </c>
       <c r="F54" s="13">
-        <v>592</v>
+        <v>25596</v>
       </c>
       <c r="G54" s="15">
-        <v>159</v>
+        <v>6888</v>
       </c>
       <c r="H54" s="17">
-        <v>557</v>
+        <v>24125</v>
       </c>
       <c r="I54" s="19">
-        <v>1086</v>
+        <v>46839</v>
       </c>
       <c r="J54" s="21">
-        <v>-529</v>
+        <v>-22714</v>
       </c>
       <c r="K54" s="23">
-        <v>173</v>
+        <v>7475</v>
       </c>
       <c r="L54" s="25">
-        <v>291</v>
+        <v>12658</v>
       </c>
       <c r="M54" s="27">
-        <v>-118</v>
+        <v>-5183</v>
       </c>
       <c r="N54" s="29">
-        <v>54</v>
+        <v>2341</v>
       </c>
       <c r="O54" s="31">
+        <v>4981</v>
+      </c>
+      <c r="P54" s="33">
+        <v>-2640</v>
+      </c>
+      <c r="Q54" s="35">
+        <v>4699</v>
+      </c>
+      <c r="R54" s="37">
+        <v>8243</v>
+      </c>
+      <c r="S54" s="39">
+        <v>-3545</v>
+      </c>
+      <c r="T54" s="41">
+        <v>132</v>
+      </c>
+      <c r="U54" s="43">
+        <v>950</v>
+      </c>
+      <c r="V54" s="45">
+        <v>-818</v>
+      </c>
+      <c r="W54" s="47">
+        <v>32</v>
+      </c>
+      <c r="X54" s="49">
         <v>117</v>
       </c>
-      <c r="P54" s="33">
-        <v>-63</v>
-      </c>
-      <c r="Q54" s="35">
-        <v>108</v>
-      </c>
-      <c r="R54" s="37">
-        <v>189</v>
-      </c>
-      <c r="S54" s="39">
-        <v>-81</v>
-      </c>
-      <c r="T54" s="41">
-        <v>3</v>
-      </c>
-      <c r="U54" s="43">
-        <v>22</v>
-      </c>
-      <c r="V54" s="45">
-        <v>-19</v>
-      </c>
-      <c r="W54" s="47">
-        <v>1</v>
-      </c>
-      <c r="X54" s="49">
-        <v>3</v>
-      </c>
       <c r="Y54" s="51">
-        <v>-2</v>
+        <v>-84</v>
       </c>
       <c r="Z54" s="53">
-        <v>170</v>
+        <v>7369</v>
       </c>
       <c r="AA54" s="55">
-        <v>353</v>
+        <v>15104</v>
       </c>
       <c r="AB54" s="57">
-        <v>-183</v>
+        <v>-7736</v>
       </c>
       <c r="AC54" s="59">
-        <v>48</v>
+        <v>2078</v>
       </c>
       <c r="AD54" s="61">
-        <v>110</v>
+        <v>4787</v>
       </c>
       <c r="AE54" s="63">
-        <v>-62</v>
+        <v>-2708</v>
       </c>
       <c r="AF54" s="65">
         <v>0</v>
@@ -7647,16 +7647,16 @@
         <v>0</v>
       </c>
       <c r="AI54" s="71">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="AJ54" s="73">
-        <v>7</v>
+        <v>334</v>
       </c>
       <c r="AK54" s="75">
-        <v>-2</v>
+        <v>-94</v>
       </c>
       <c r="AL54" s="77">
-        <v>2351</v>
+        <v>101408</v>
       </c>
     </row>
     <row r="55">
@@ -7664,94 +7664,94 @@
         <v>67</v>
       </c>
       <c r="B55" s="5">
-        <v>649</v>
+        <v>30401</v>
       </c>
       <c r="C55" s="7">
-        <v>434</v>
+        <v>20623</v>
       </c>
       <c r="D55" s="9">
-        <v>215</v>
+        <v>9778</v>
       </c>
       <c r="E55" s="11">
-        <v>1193</v>
+        <v>56009</v>
       </c>
       <c r="F55" s="13">
-        <v>793</v>
+        <v>37094</v>
       </c>
       <c r="G55" s="15">
-        <v>400</v>
+        <v>18915</v>
       </c>
       <c r="H55" s="17">
-        <v>554</v>
+        <v>26355</v>
       </c>
       <c r="I55" s="19">
-        <v>1165</v>
+        <v>54872</v>
       </c>
       <c r="J55" s="21">
-        <v>-610</v>
+        <v>-28517</v>
       </c>
       <c r="K55" s="23">
-        <v>183</v>
+        <v>8644</v>
       </c>
       <c r="L55" s="25">
-        <v>250</v>
+        <v>11794</v>
       </c>
       <c r="M55" s="27">
-        <v>-68</v>
+        <v>-3150</v>
       </c>
       <c r="N55" s="29">
-        <v>40</v>
+        <v>1894</v>
       </c>
       <c r="O55" s="31">
-        <v>147</v>
+        <v>6849</v>
       </c>
       <c r="P55" s="33">
-        <v>-107</v>
+        <v>-4955</v>
       </c>
       <c r="Q55" s="35">
-        <v>88</v>
+        <v>4189</v>
       </c>
       <c r="R55" s="37">
-        <v>266</v>
+        <v>12566</v>
       </c>
       <c r="S55" s="39">
-        <v>-178</v>
+        <v>-8377</v>
       </c>
       <c r="T55" s="41">
-        <v>6</v>
+        <v>275</v>
       </c>
       <c r="U55" s="43">
-        <v>10</v>
+        <v>458</v>
       </c>
       <c r="V55" s="45">
-        <v>-4</v>
+        <v>-184</v>
       </c>
       <c r="W55" s="47">
+        <v>243</v>
+      </c>
+      <c r="X55" s="49">
         <v>5</v>
       </c>
-      <c r="X55" s="49">
-        <v>0</v>
-      </c>
       <c r="Y55" s="51">
-        <v>5</v>
+        <v>238</v>
       </c>
       <c r="Z55" s="53">
-        <v>170</v>
+        <v>8148</v>
       </c>
       <c r="AA55" s="55">
-        <v>357</v>
+        <v>16966</v>
       </c>
       <c r="AB55" s="57">
-        <v>-187</v>
+        <v>-8818</v>
       </c>
       <c r="AC55" s="59">
-        <v>63</v>
+        <v>2963</v>
       </c>
       <c r="AD55" s="61">
-        <v>134</v>
+        <v>6234</v>
       </c>
       <c r="AE55" s="63">
-        <v>-71</v>
+        <v>-3271</v>
       </c>
       <c r="AF55" s="65">
         <v>0</v>
@@ -7763,16 +7763,16 @@
         <v>0</v>
       </c>
       <c r="AI55" s="71">
-        <v>10</v>
+        <v>489</v>
       </c>
       <c r="AJ55" s="73">
-        <v>14</v>
+        <v>665</v>
       </c>
       <c r="AK55" s="75">
-        <v>-4</v>
+        <v>-176</v>
       </c>
       <c r="AL55" s="77">
-        <v>2406</v>
+        <v>113254</v>
       </c>
     </row>
     <row r="56">
@@ -7780,94 +7780,94 @@
         <v>68</v>
       </c>
       <c r="B56" s="5">
-        <v>661</v>
+        <v>33056</v>
       </c>
       <c r="C56" s="7">
-        <v>686</v>
+        <v>34385</v>
       </c>
       <c r="D56" s="9">
-        <v>-25</v>
+        <v>-1328</v>
       </c>
       <c r="E56" s="11">
-        <v>846</v>
+        <v>42222</v>
       </c>
       <c r="F56" s="13">
-        <v>950</v>
+        <v>47945</v>
       </c>
       <c r="G56" s="15">
-        <v>-104</v>
+        <v>-5723</v>
       </c>
       <c r="H56" s="17">
-        <v>1442</v>
+        <v>72878</v>
       </c>
       <c r="I56" s="19">
-        <v>1313</v>
+        <v>65813</v>
       </c>
       <c r="J56" s="21">
-        <v>129</v>
+        <v>7064</v>
       </c>
       <c r="K56" s="23">
-        <v>264</v>
+        <v>13276</v>
       </c>
       <c r="L56" s="25">
-        <v>285</v>
+        <v>14298</v>
       </c>
       <c r="M56" s="27">
-        <v>-21</v>
+        <v>-1022</v>
       </c>
       <c r="N56" s="29">
-        <v>115</v>
+        <v>5822</v>
       </c>
       <c r="O56" s="31">
-        <v>92</v>
+        <v>4562</v>
       </c>
       <c r="P56" s="33">
-        <v>24</v>
+        <v>1260</v>
       </c>
       <c r="Q56" s="35">
-        <v>245</v>
+        <v>12358</v>
       </c>
       <c r="R56" s="37">
-        <v>247</v>
+        <v>12431</v>
       </c>
       <c r="S56" s="39">
-        <v>-3</v>
+        <v>-73</v>
       </c>
       <c r="T56" s="41">
-        <v>22</v>
+        <v>1098</v>
       </c>
       <c r="U56" s="43">
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="V56" s="45">
-        <v>17</v>
+        <v>870</v>
       </c>
       <c r="W56" s="47">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="X56" s="49">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="Y56" s="51">
-        <v>-2</v>
+        <v>-97</v>
       </c>
       <c r="Z56" s="53">
-        <v>698</v>
+        <v>35327</v>
       </c>
       <c r="AA56" s="55">
-        <v>441</v>
+        <v>22106</v>
       </c>
       <c r="AB56" s="57">
-        <v>257</v>
+        <v>13221</v>
       </c>
       <c r="AC56" s="59">
-        <v>98</v>
+        <v>4952</v>
       </c>
       <c r="AD56" s="61">
-        <v>241</v>
+        <v>12048</v>
       </c>
       <c r="AE56" s="63">
-        <v>-143</v>
+        <v>-7096</v>
       </c>
       <c r="AF56" s="65">
         <v>0</v>
@@ -7879,16 +7879,16 @@
         <v>0</v>
       </c>
       <c r="AI56" s="71">
-        <v>9</v>
+        <v>472</v>
       </c>
       <c r="AJ56" s="73">
-        <v>10</v>
+        <v>485</v>
       </c>
       <c r="AK56" s="75">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="AL56" s="77">
-        <v>2959</v>
+        <v>148629</v>
       </c>
     </row>
     <row r="57">
@@ -7896,94 +7896,94 @@
         <v>69</v>
       </c>
       <c r="B57" s="5">
-        <v>418</v>
+        <v>20797</v>
       </c>
       <c r="C57" s="7">
-        <v>611</v>
+        <v>30600</v>
       </c>
       <c r="D57" s="9">
-        <v>-193</v>
+        <v>-9803</v>
       </c>
       <c r="E57" s="11">
-        <v>1001</v>
+        <v>50032</v>
       </c>
       <c r="F57" s="13">
-        <v>1038</v>
+        <v>52311</v>
       </c>
       <c r="G57" s="15">
-        <v>-37</v>
+        <v>-2279</v>
       </c>
       <c r="H57" s="17">
-        <v>1288</v>
+        <v>64959</v>
       </c>
       <c r="I57" s="19">
-        <v>1046</v>
+        <v>52263</v>
       </c>
       <c r="J57" s="21">
-        <v>242</v>
+        <v>12696</v>
       </c>
       <c r="K57" s="23">
-        <v>256</v>
+        <v>12918</v>
       </c>
       <c r="L57" s="25">
-        <v>222</v>
+        <v>11094</v>
       </c>
       <c r="M57" s="27">
-        <v>34</v>
+        <v>1824</v>
       </c>
       <c r="N57" s="29">
-        <v>139</v>
+        <v>6959</v>
       </c>
       <c r="O57" s="31">
-        <v>93</v>
+        <v>4701</v>
       </c>
       <c r="P57" s="33">
-        <v>46</v>
+        <v>2258</v>
       </c>
       <c r="Q57" s="35">
-        <v>250</v>
+        <v>12686</v>
       </c>
       <c r="R57" s="37">
-        <v>291</v>
+        <v>14584</v>
       </c>
       <c r="S57" s="39">
-        <v>-41</v>
+        <v>-1898</v>
       </c>
       <c r="T57" s="41">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="U57" s="43">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V57" s="45">
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="W57" s="47">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="X57" s="49">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y57" s="51">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z57" s="53">
-        <v>427</v>
+        <v>21524</v>
       </c>
       <c r="AA57" s="55">
-        <v>335</v>
+        <v>16667</v>
       </c>
       <c r="AB57" s="57">
-        <v>92</v>
+        <v>4858</v>
       </c>
       <c r="AC57" s="59">
-        <v>212</v>
+        <v>10688</v>
       </c>
       <c r="AD57" s="61">
-        <v>104</v>
+        <v>5205</v>
       </c>
       <c r="AE57" s="63">
-        <v>107</v>
+        <v>5484</v>
       </c>
       <c r="AF57" s="65">
         <v>0</v>
@@ -7995,16 +7995,16 @@
         <v>0</v>
       </c>
       <c r="AI57" s="71">
-        <v>9</v>
+        <v>453</v>
       </c>
       <c r="AJ57" s="73">
-        <v>22</v>
+        <v>1066</v>
       </c>
       <c r="AK57" s="75">
-        <v>-13</v>
+        <v>-613</v>
       </c>
       <c r="AL57" s="77">
-        <v>2717</v>
+        <v>136240</v>
       </c>
     </row>
     <row r="58">
@@ -8012,115 +8012,115 @@
         <v>70</v>
       </c>
       <c r="B58" s="5">
+        <v>34691</v>
+      </c>
+      <c r="C58" s="7">
+        <v>38853</v>
+      </c>
+      <c r="D58" s="9">
+        <v>-4162</v>
+      </c>
+      <c r="E58" s="11">
+        <v>61068</v>
+      </c>
+      <c r="F58" s="13">
+        <v>68885</v>
+      </c>
+      <c r="G58" s="15">
+        <v>-7816</v>
+      </c>
+      <c r="H58" s="17">
+        <v>76694</v>
+      </c>
+      <c r="I58" s="19">
+        <v>65335</v>
+      </c>
+      <c r="J58" s="21">
+        <v>11358</v>
+      </c>
+      <c r="K58" s="23">
+        <v>10320</v>
+      </c>
+      <c r="L58" s="25">
+        <v>8582</v>
+      </c>
+      <c r="M58" s="27">
+        <v>1737</v>
+      </c>
+      <c r="N58" s="29">
+        <v>9812</v>
+      </c>
+      <c r="O58" s="31">
+        <v>7347</v>
+      </c>
+      <c r="P58" s="33">
+        <v>2466</v>
+      </c>
+      <c r="Q58" s="35">
+        <v>13862</v>
+      </c>
+      <c r="R58" s="37">
+        <v>15155</v>
+      </c>
+      <c r="S58" s="39">
+        <v>-1293</v>
+      </c>
+      <c r="T58" s="41">
+        <v>687</v>
+      </c>
+      <c r="U58" s="43">
+        <v>614</v>
+      </c>
+      <c r="V58" s="45">
+        <v>73</v>
+      </c>
+      <c r="W58" s="47">
+        <v>150</v>
+      </c>
+      <c r="X58" s="49">
+        <v>416</v>
+      </c>
+      <c r="Y58" s="51">
+        <v>-266</v>
+      </c>
+      <c r="Z58" s="53">
+        <v>28194</v>
+      </c>
+      <c r="AA58" s="55">
+        <v>24749</v>
+      </c>
+      <c r="AB58" s="57">
+        <v>3445</v>
+      </c>
+      <c r="AC58" s="59">
+        <v>13669</v>
+      </c>
+      <c r="AD58" s="61">
+        <v>8473</v>
+      </c>
+      <c r="AE58" s="63">
+        <v>5196</v>
+      </c>
+      <c r="AF58" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="69">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="71">
         <v>752</v>
       </c>
-      <c r="C58" s="7">
-        <v>835</v>
-      </c>
-      <c r="D58" s="9">
-        <v>-83</v>
-      </c>
-      <c r="E58" s="11">
-        <v>1327</v>
-      </c>
-      <c r="F58" s="13">
-        <v>1470</v>
-      </c>
-      <c r="G58" s="15">
-        <v>-142</v>
-      </c>
-      <c r="H58" s="17">
-        <v>1637</v>
-      </c>
-      <c r="I58" s="19">
-        <v>1424</v>
-      </c>
-      <c r="J58" s="21">
-        <v>213</v>
-      </c>
-      <c r="K58" s="23">
-        <v>223</v>
-      </c>
-      <c r="L58" s="25">
-        <v>188</v>
-      </c>
-      <c r="M58" s="27">
-        <v>35</v>
-      </c>
-      <c r="N58" s="29">
-        <v>207</v>
-      </c>
-      <c r="O58" s="31">
-        <v>160</v>
-      </c>
-      <c r="P58" s="33">
-        <v>48</v>
-      </c>
-      <c r="Q58" s="35">
-        <v>291</v>
-      </c>
-      <c r="R58" s="37">
-        <v>326</v>
-      </c>
-      <c r="S58" s="39">
-        <v>-34</v>
-      </c>
-      <c r="T58" s="41">
-        <v>15</v>
-      </c>
-      <c r="U58" s="43">
-        <v>14</v>
-      </c>
-      <c r="V58" s="45">
-        <v>2</v>
-      </c>
-      <c r="W58" s="47">
-        <v>3</v>
-      </c>
-      <c r="X58" s="49">
-        <v>9</v>
-      </c>
-      <c r="Y58" s="51">
-        <v>-6</v>
-      </c>
-      <c r="Z58" s="53">
-        <v>598</v>
-      </c>
-      <c r="AA58" s="55">
-        <v>544</v>
-      </c>
-      <c r="AB58" s="57">
-        <v>55</v>
-      </c>
-      <c r="AC58" s="59">
-        <v>298</v>
-      </c>
-      <c r="AD58" s="61">
-        <v>184</v>
-      </c>
-      <c r="AE58" s="63">
-        <v>114</v>
-      </c>
-      <c r="AF58" s="65">
-        <v>0</v>
-      </c>
-      <c r="AG58" s="67">
-        <v>0</v>
-      </c>
-      <c r="AH58" s="69">
-        <v>0</v>
-      </c>
-      <c r="AI58" s="71">
-        <v>16</v>
-      </c>
       <c r="AJ58" s="73">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="AK58" s="75">
-        <v>13</v>
+        <v>620</v>
       </c>
       <c r="AL58" s="77">
-        <v>3732</v>
+        <v>173205</v>
       </c>
     </row>
     <row r="59">
@@ -8128,115 +8128,115 @@
         <v>71</v>
       </c>
       <c r="B59" s="5">
-        <v>1102</v>
+        <v>46944</v>
       </c>
       <c r="C59" s="7">
-        <v>986</v>
+        <v>43359</v>
       </c>
       <c r="D59" s="9">
-        <v>116</v>
+        <v>3586</v>
       </c>
       <c r="E59" s="11">
-        <v>1253</v>
+        <v>55170</v>
       </c>
       <c r="F59" s="13">
-        <v>1570</v>
+        <v>70181</v>
       </c>
       <c r="G59" s="15">
-        <v>-317</v>
+        <v>-15011</v>
       </c>
       <c r="H59" s="17">
-        <v>1611</v>
+        <v>72803</v>
       </c>
       <c r="I59" s="19">
-        <v>1348</v>
+        <v>58707</v>
       </c>
       <c r="J59" s="21">
-        <v>263</v>
+        <v>14096</v>
       </c>
       <c r="K59" s="23">
-        <v>276</v>
+        <v>12000</v>
       </c>
       <c r="L59" s="25">
-        <v>192</v>
+        <v>8309</v>
       </c>
       <c r="M59" s="27">
-        <v>84</v>
+        <v>3691</v>
       </c>
       <c r="N59" s="29">
-        <v>173</v>
+        <v>8038</v>
       </c>
       <c r="O59" s="31">
-        <v>200</v>
+        <v>8546</v>
       </c>
       <c r="P59" s="33">
-        <v>-27</v>
+        <v>-508</v>
       </c>
       <c r="Q59" s="35">
-        <v>353</v>
+        <v>16163</v>
       </c>
       <c r="R59" s="37">
-        <v>390</v>
+        <v>16634</v>
       </c>
       <c r="S59" s="39">
-        <v>-37</v>
+        <v>-471</v>
       </c>
       <c r="T59" s="41">
-        <v>17</v>
+        <v>794</v>
       </c>
       <c r="U59" s="43">
-        <v>6</v>
+        <v>261</v>
       </c>
       <c r="V59" s="45">
-        <v>11</v>
+        <v>533</v>
       </c>
       <c r="W59" s="47">
-        <v>13</v>
+        <v>565</v>
       </c>
       <c r="X59" s="49">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="Y59" s="51">
-        <v>9</v>
+        <v>387</v>
       </c>
       <c r="Z59" s="53">
-        <v>529</v>
+        <v>24063</v>
       </c>
       <c r="AA59" s="55">
-        <v>398</v>
+        <v>17818</v>
       </c>
       <c r="AB59" s="57">
-        <v>131</v>
+        <v>6244</v>
       </c>
       <c r="AC59" s="59">
-        <v>232</v>
+        <v>10422</v>
       </c>
       <c r="AD59" s="61">
-        <v>139</v>
+        <v>6171</v>
       </c>
       <c r="AE59" s="63">
-        <v>93</v>
+        <v>4251</v>
       </c>
       <c r="AF59" s="65">
-        <v>18</v>
+        <v>759</v>
       </c>
       <c r="AG59" s="67">
-        <v>19</v>
+        <v>789</v>
       </c>
       <c r="AH59" s="69">
-        <v>-1</v>
+        <v>-30</v>
       </c>
       <c r="AI59" s="71">
-        <v>16</v>
+        <v>733</v>
       </c>
       <c r="AJ59" s="73">
-        <v>77</v>
+        <v>3404</v>
       </c>
       <c r="AK59" s="75">
-        <v>-62</v>
+        <v>-2671</v>
       </c>
       <c r="AL59" s="77">
-        <v>3982</v>
+        <v>175650</v>
       </c>
     </row>
     <row r="60">
@@ -8244,115 +8244,115 @@
         <v>72</v>
       </c>
       <c r="B60" s="5">
-        <v>1217</v>
+        <v>50561</v>
       </c>
       <c r="C60" s="7">
-        <v>1157</v>
+        <v>48245</v>
       </c>
       <c r="D60" s="9">
-        <v>60</v>
+        <v>2315</v>
       </c>
       <c r="E60" s="11">
-        <v>1497</v>
+        <v>62480</v>
       </c>
       <c r="F60" s="13">
-        <v>1428</v>
+        <v>59574</v>
       </c>
       <c r="G60" s="15">
-        <v>69</v>
+        <v>2906</v>
       </c>
       <c r="H60" s="17">
-        <v>988</v>
+        <v>41469</v>
       </c>
       <c r="I60" s="19">
-        <v>1078</v>
+        <v>44980</v>
       </c>
       <c r="J60" s="21">
-        <v>-91</v>
+        <v>-3511</v>
       </c>
       <c r="K60" s="23">
-        <v>220</v>
+        <v>9228</v>
       </c>
       <c r="L60" s="25">
-        <v>169</v>
+        <v>7146</v>
       </c>
       <c r="M60" s="27">
+        <v>2082</v>
+      </c>
+      <c r="N60" s="29">
+        <v>4498</v>
+      </c>
+      <c r="O60" s="31">
+        <v>8685</v>
+      </c>
+      <c r="P60" s="33">
+        <v>-4187</v>
+      </c>
+      <c r="Q60" s="35">
+        <v>5985</v>
+      </c>
+      <c r="R60" s="37">
+        <v>6607</v>
+      </c>
+      <c r="S60" s="39">
+        <v>-621</v>
+      </c>
+      <c r="T60" s="41">
+        <v>8</v>
+      </c>
+      <c r="U60" s="43">
+        <v>296</v>
+      </c>
+      <c r="V60" s="45">
+        <v>-288</v>
+      </c>
+      <c r="W60" s="47">
         <v>51</v>
       </c>
-      <c r="N60" s="29">
-        <v>105</v>
-      </c>
-      <c r="O60" s="31">
-        <v>210</v>
-      </c>
-      <c r="P60" s="33">
-        <v>-105</v>
-      </c>
-      <c r="Q60" s="35">
-        <v>144</v>
-      </c>
-      <c r="R60" s="37">
-        <v>161</v>
-      </c>
-      <c r="S60" s="39">
-        <v>-17</v>
-      </c>
-      <c r="T60" s="41">
-        <v>0</v>
-      </c>
-      <c r="U60" s="43">
-        <v>7</v>
-      </c>
-      <c r="V60" s="45">
-        <v>-7</v>
-      </c>
-      <c r="W60" s="47">
-        <v>1</v>
-      </c>
       <c r="X60" s="49">
-        <v>6</v>
+        <v>227</v>
       </c>
       <c r="Y60" s="51">
-        <v>-4</v>
+        <v>-176</v>
       </c>
       <c r="Z60" s="53">
-        <v>313</v>
+        <v>13151</v>
       </c>
       <c r="AA60" s="55">
-        <v>92</v>
+        <v>3786</v>
       </c>
       <c r="AB60" s="57">
-        <v>220</v>
+        <v>9365</v>
       </c>
       <c r="AC60" s="59">
-        <v>58</v>
+        <v>2402</v>
       </c>
       <c r="AD60" s="61">
-        <v>206</v>
+        <v>8722</v>
       </c>
       <c r="AE60" s="63">
-        <v>-148</v>
+        <v>-6320</v>
       </c>
       <c r="AF60" s="65">
-        <v>147</v>
+        <v>6145</v>
       </c>
       <c r="AG60" s="67">
-        <v>228</v>
+        <v>9512</v>
       </c>
       <c r="AH60" s="69">
-        <v>-81</v>
+        <v>-3367</v>
       </c>
       <c r="AI60" s="71">
-        <v>11</v>
+        <v>488</v>
       </c>
       <c r="AJ60" s="73">
-        <v>50</v>
+        <v>2198</v>
       </c>
       <c r="AK60" s="75">
-        <v>-38</v>
+        <v>-1710</v>
       </c>
       <c r="AL60" s="77">
-        <v>3713</v>
+        <v>154997</v>
       </c>
     </row>
     <row r="61">
@@ -8360,115 +8360,115 @@
         <v>73</v>
       </c>
       <c r="B61" s="5">
-        <v>1590</v>
+        <v>70309</v>
       </c>
       <c r="C61" s="7">
-        <v>1367</v>
+        <v>61719</v>
       </c>
       <c r="D61" s="9">
-        <v>223</v>
+        <v>8590</v>
       </c>
       <c r="E61" s="11">
-        <v>2282</v>
+        <v>104081</v>
       </c>
       <c r="F61" s="13">
-        <v>2466</v>
+        <v>111198</v>
       </c>
       <c r="G61" s="15">
-        <v>-184</v>
+        <v>-7117</v>
       </c>
       <c r="H61" s="17">
-        <v>1895</v>
+        <v>85534</v>
       </c>
       <c r="I61" s="19">
-        <v>1754</v>
+        <v>79291</v>
       </c>
       <c r="J61" s="21">
-        <v>140</v>
+        <v>6243</v>
       </c>
       <c r="K61" s="23">
-        <v>524</v>
+        <v>23579</v>
       </c>
       <c r="L61" s="25">
-        <v>218</v>
+        <v>9591</v>
       </c>
       <c r="M61" s="27">
-        <v>306</v>
+        <v>13988</v>
       </c>
       <c r="N61" s="29">
-        <v>222</v>
+        <v>9841</v>
       </c>
       <c r="O61" s="31">
-        <v>293</v>
+        <v>13271</v>
       </c>
       <c r="P61" s="33">
-        <v>-71</v>
+        <v>-3430</v>
       </c>
       <c r="Q61" s="35">
-        <v>439</v>
+        <v>19851</v>
       </c>
       <c r="R61" s="37">
-        <v>264</v>
+        <v>12028</v>
       </c>
       <c r="S61" s="39">
-        <v>175</v>
+        <v>7824</v>
       </c>
       <c r="T61" s="41">
-        <v>7</v>
+        <v>356</v>
       </c>
       <c r="U61" s="43">
-        <v>14</v>
+        <v>597</v>
       </c>
       <c r="V61" s="45">
-        <v>-6</v>
+        <v>-241</v>
       </c>
       <c r="W61" s="47">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="X61" s="49">
-        <v>31</v>
+        <v>1555</v>
       </c>
       <c r="Y61" s="51">
-        <v>-28</v>
+        <v>-1408</v>
       </c>
       <c r="Z61" s="53">
-        <v>224</v>
+        <v>10253</v>
       </c>
       <c r="AA61" s="55">
-        <v>580</v>
+        <v>26053</v>
       </c>
       <c r="AB61" s="57">
-        <v>-356</v>
+        <v>-15801</v>
       </c>
       <c r="AC61" s="59">
-        <v>315</v>
+        <v>14228</v>
       </c>
       <c r="AD61" s="61">
-        <v>140</v>
+        <v>6379</v>
       </c>
       <c r="AE61" s="63">
-        <v>175</v>
+        <v>7849</v>
       </c>
       <c r="AF61" s="65">
-        <v>161</v>
+        <v>7280</v>
       </c>
       <c r="AG61" s="67">
-        <v>215</v>
+        <v>9817</v>
       </c>
       <c r="AH61" s="69">
-        <v>-54</v>
+        <v>-2537</v>
       </c>
       <c r="AI61" s="71">
-        <v>12</v>
+        <v>565</v>
       </c>
       <c r="AJ61" s="73">
-        <v>190</v>
+        <v>8280</v>
       </c>
       <c r="AK61" s="75">
-        <v>-178</v>
+        <v>-7716</v>
       </c>
       <c r="AL61" s="77">
-        <v>5778</v>
+        <v>260489</v>
       </c>
     </row>
     <row r="62">
@@ -8476,115 +8476,115 @@
         <v>74</v>
       </c>
       <c r="B62" s="5">
-        <v>1269</v>
+        <v>71273</v>
       </c>
       <c r="C62" s="7">
-        <v>1896</v>
+        <v>106787</v>
       </c>
       <c r="D62" s="9">
-        <v>-627</v>
+        <v>-35514</v>
       </c>
       <c r="E62" s="11">
-        <v>3125</v>
+        <v>181171</v>
       </c>
       <c r="F62" s="13">
-        <v>2491</v>
+        <v>145899</v>
       </c>
       <c r="G62" s="15">
-        <v>634</v>
+        <v>35272</v>
       </c>
       <c r="H62" s="17">
-        <v>2432</v>
+        <v>141947</v>
       </c>
       <c r="I62" s="19">
-        <v>2445</v>
+        <v>142064</v>
       </c>
       <c r="J62" s="21">
-        <v>-12</v>
+        <v>-117</v>
       </c>
       <c r="K62" s="23">
-        <v>893</v>
+        <v>52157</v>
       </c>
       <c r="L62" s="25">
-        <v>584</v>
+        <v>34464</v>
       </c>
       <c r="M62" s="27">
-        <v>308</v>
+        <v>17694</v>
       </c>
       <c r="N62" s="29">
-        <v>258</v>
+        <v>15170</v>
       </c>
       <c r="O62" s="31">
-        <v>214</v>
+        <v>12221</v>
       </c>
       <c r="P62" s="33">
-        <v>44</v>
+        <v>2949</v>
       </c>
       <c r="Q62" s="35">
-        <v>441</v>
+        <v>25543</v>
       </c>
       <c r="R62" s="37">
-        <v>641</v>
+        <v>37323</v>
       </c>
       <c r="S62" s="39">
-        <v>-200</v>
+        <v>-11780</v>
       </c>
       <c r="T62" s="41">
-        <v>7</v>
+        <v>430</v>
       </c>
       <c r="U62" s="43">
-        <v>6</v>
+        <v>310</v>
       </c>
       <c r="V62" s="45">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="W62" s="47">
-        <v>51</v>
+        <v>2945</v>
       </c>
       <c r="X62" s="49">
-        <v>28</v>
+        <v>1648</v>
       </c>
       <c r="Y62" s="51">
-        <v>23</v>
+        <v>1297</v>
       </c>
       <c r="Z62" s="53">
-        <v>297</v>
+        <v>17316</v>
       </c>
       <c r="AA62" s="55">
-        <v>358</v>
+        <v>20138</v>
       </c>
       <c r="AB62" s="57">
-        <v>-61</v>
+        <v>-2822</v>
       </c>
       <c r="AC62" s="59">
-        <v>321</v>
+        <v>18722</v>
       </c>
       <c r="AD62" s="61">
-        <v>455</v>
+        <v>26823</v>
       </c>
       <c r="AE62" s="63">
-        <v>-134</v>
+        <v>-8101</v>
       </c>
       <c r="AF62" s="65">
-        <v>165</v>
+        <v>9663</v>
       </c>
       <c r="AG62" s="67">
-        <v>159</v>
+        <v>9136</v>
       </c>
       <c r="AH62" s="69">
-        <v>6</v>
+        <v>527</v>
       </c>
       <c r="AI62" s="71">
-        <v>54</v>
+        <v>3234</v>
       </c>
       <c r="AJ62" s="73">
-        <v>49</v>
+        <v>2874</v>
       </c>
       <c r="AK62" s="75">
-        <v>5</v>
+        <v>359</v>
       </c>
       <c r="AL62" s="77">
-        <v>6881</v>
+        <v>397625</v>
       </c>
     </row>
     <row r="63">
@@ -8592,115 +8592,115 @@
         <v>75</v>
       </c>
       <c r="B63" s="5">
-        <v>672</v>
+        <v>38287</v>
       </c>
       <c r="C63" s="7">
-        <v>1311</v>
+        <v>74424</v>
       </c>
       <c r="D63" s="9">
-        <v>-639</v>
+        <v>-36137</v>
       </c>
       <c r="E63" s="11">
-        <v>1360</v>
+        <v>77455</v>
       </c>
       <c r="F63" s="13">
-        <v>1426</v>
+        <v>81497</v>
       </c>
       <c r="G63" s="15">
-        <v>-67</v>
+        <v>-4042</v>
       </c>
       <c r="H63" s="17">
-        <v>2652</v>
+        <v>150730</v>
       </c>
       <c r="I63" s="19">
-        <v>1942</v>
+        <v>110332</v>
       </c>
       <c r="J63" s="21">
-        <v>710</v>
+        <v>40398</v>
       </c>
       <c r="K63" s="23">
-        <v>1442</v>
+        <v>81725</v>
       </c>
       <c r="L63" s="25">
-        <v>320</v>
+        <v>18198</v>
       </c>
       <c r="M63" s="27">
-        <v>1122</v>
+        <v>63527</v>
       </c>
       <c r="N63" s="29">
-        <v>224</v>
+        <v>12789</v>
       </c>
       <c r="O63" s="31">
-        <v>190</v>
+        <v>10755</v>
       </c>
       <c r="P63" s="33">
-        <v>35</v>
+        <v>2035</v>
       </c>
       <c r="Q63" s="35">
-        <v>283</v>
+        <v>16100</v>
       </c>
       <c r="R63" s="37">
-        <v>354</v>
+        <v>20164</v>
       </c>
       <c r="S63" s="39">
-        <v>-72</v>
+        <v>-4064</v>
       </c>
       <c r="T63" s="41">
-        <v>11</v>
+        <v>621</v>
       </c>
       <c r="U63" s="43">
-        <v>22</v>
+        <v>1271</v>
       </c>
       <c r="V63" s="45">
-        <v>-11</v>
+        <v>-649</v>
       </c>
       <c r="W63" s="47">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="X63" s="49">
-        <v>9</v>
+        <v>490</v>
       </c>
       <c r="Y63" s="51">
-        <v>-8</v>
+        <v>-435</v>
       </c>
       <c r="Z63" s="53">
-        <v>219</v>
+        <v>12530</v>
       </c>
       <c r="AA63" s="55">
-        <v>334</v>
+        <v>18941</v>
       </c>
       <c r="AB63" s="57">
-        <v>-115</v>
+        <v>-6411</v>
       </c>
       <c r="AC63" s="59">
-        <v>345</v>
+        <v>19647</v>
       </c>
       <c r="AD63" s="61">
-        <v>591</v>
+        <v>33519</v>
       </c>
       <c r="AE63" s="63">
-        <v>-246</v>
+        <v>-13872</v>
       </c>
       <c r="AF63" s="65">
-        <v>127</v>
+        <v>7264</v>
       </c>
       <c r="AG63" s="67">
-        <v>123</v>
+        <v>6995</v>
       </c>
       <c r="AH63" s="69">
-        <v>4</v>
+        <v>269</v>
       </c>
       <c r="AI63" s="71">
-        <v>7</v>
+        <v>407</v>
       </c>
       <c r="AJ63" s="73">
-        <v>11</v>
+        <v>626</v>
       </c>
       <c r="AK63" s="75">
-        <v>-4</v>
+        <v>-219</v>
       </c>
       <c r="AL63" s="77">
-        <v>4691</v>
+        <v>266879</v>
       </c>
     </row>
     <row r="64">
@@ -8708,115 +8708,115 @@
         <v>76</v>
       </c>
       <c r="B64" s="5">
-        <v>1112</v>
+        <v>63251</v>
       </c>
       <c r="C64" s="7">
-        <v>1809</v>
+        <v>102423</v>
       </c>
       <c r="D64" s="9">
-        <v>-697</v>
+        <v>-39172</v>
       </c>
       <c r="E64" s="11">
-        <v>3132</v>
+        <v>176843</v>
       </c>
       <c r="F64" s="13">
-        <v>3578</v>
+        <v>202485</v>
       </c>
       <c r="G64" s="15">
-        <v>-446</v>
+        <v>-25643</v>
       </c>
       <c r="H64" s="17">
-        <v>2561</v>
+        <v>144900</v>
       </c>
       <c r="I64" s="19">
-        <v>1440</v>
+        <v>81372</v>
       </c>
       <c r="J64" s="21">
-        <v>1121</v>
+        <v>63528</v>
       </c>
       <c r="K64" s="23">
-        <v>317</v>
+        <v>17766</v>
       </c>
       <c r="L64" s="25">
-        <v>243</v>
+        <v>13733</v>
       </c>
       <c r="M64" s="27">
-        <v>74</v>
+        <v>4033</v>
       </c>
       <c r="N64" s="29">
-        <v>403</v>
+        <v>22927</v>
       </c>
       <c r="O64" s="31">
-        <v>195</v>
+        <v>10891</v>
       </c>
       <c r="P64" s="33">
-        <v>208</v>
+        <v>12036</v>
       </c>
       <c r="Q64" s="35">
-        <v>558</v>
+        <v>31614</v>
       </c>
       <c r="R64" s="37">
-        <v>273</v>
+        <v>15485</v>
       </c>
       <c r="S64" s="39">
-        <v>284</v>
+        <v>16129</v>
       </c>
       <c r="T64" s="41">
-        <v>24</v>
+        <v>1346</v>
       </c>
       <c r="U64" s="43">
-        <v>7</v>
+        <v>349</v>
       </c>
       <c r="V64" s="45">
-        <v>17</v>
+        <v>997</v>
       </c>
       <c r="W64" s="47">
-        <v>9</v>
+        <v>504</v>
       </c>
       <c r="X64" s="49">
-        <v>10</v>
+        <v>542</v>
       </c>
       <c r="Y64" s="51">
-        <v>-1</v>
+        <v>-38</v>
       </c>
       <c r="Z64" s="53">
-        <v>683</v>
+        <v>38506</v>
       </c>
       <c r="AA64" s="55">
-        <v>102</v>
+        <v>5831</v>
       </c>
       <c r="AB64" s="57">
-        <v>581</v>
+        <v>32676</v>
       </c>
       <c r="AC64" s="59">
-        <v>404</v>
+        <v>22936</v>
       </c>
       <c r="AD64" s="61">
-        <v>477</v>
+        <v>27054</v>
       </c>
       <c r="AE64" s="63">
-        <v>-74</v>
+        <v>-4117</v>
       </c>
       <c r="AF64" s="65">
-        <v>164</v>
+        <v>9301</v>
       </c>
       <c r="AG64" s="67">
-        <v>133</v>
+        <v>7488</v>
       </c>
       <c r="AH64" s="69">
-        <v>31</v>
+        <v>1813</v>
       </c>
       <c r="AI64" s="71">
-        <v>60</v>
+        <v>3389</v>
       </c>
       <c r="AJ64" s="73">
-        <v>37</v>
+        <v>2102</v>
       </c>
       <c r="AK64" s="75">
-        <v>22</v>
+        <v>1287</v>
       </c>
       <c r="AL64" s="77">
-        <v>6864</v>
+        <v>388383</v>
       </c>
     </row>
     <row r="65">
@@ -8824,115 +8824,115 @@
         <v>77</v>
       </c>
       <c r="B65" s="6">
-        <v>1339</v>
+        <v>88502</v>
       </c>
       <c r="C65" s="8">
-        <v>2178</v>
+        <v>130770</v>
       </c>
       <c r="D65" s="10">
-        <v>-839</v>
+        <v>-42268</v>
       </c>
       <c r="E65" s="12">
-        <v>6718</v>
+        <v>424139</v>
       </c>
       <c r="F65" s="14">
-        <v>5830</v>
+        <v>367829</v>
       </c>
       <c r="G65" s="16">
-        <v>888</v>
+        <v>56310</v>
       </c>
       <c r="H65" s="18">
-        <v>3273</v>
+        <v>204227</v>
       </c>
       <c r="I65" s="20">
-        <v>3311</v>
+        <v>217417</v>
       </c>
       <c r="J65" s="22">
-        <v>-38</v>
+        <v>-13190</v>
       </c>
       <c r="K65" s="24">
-        <v>494</v>
+        <v>32240</v>
       </c>
       <c r="L65" s="26">
-        <v>565</v>
+        <v>37883</v>
       </c>
       <c r="M65" s="28">
-        <v>-70</v>
+        <v>-5643</v>
       </c>
       <c r="N65" s="30">
-        <v>356</v>
+        <v>21973</v>
       </c>
       <c r="O65" s="32">
-        <v>413</v>
+        <v>27626</v>
       </c>
       <c r="P65" s="34">
-        <v>-57</v>
+        <v>-5653</v>
       </c>
       <c r="Q65" s="36">
-        <v>953</v>
+        <v>59122</v>
       </c>
       <c r="R65" s="38">
-        <v>855</v>
+        <v>56506</v>
       </c>
       <c r="S65" s="40">
-        <v>99</v>
+        <v>2615</v>
       </c>
       <c r="T65" s="42">
-        <v>32</v>
+        <v>2128</v>
       </c>
       <c r="U65" s="44">
-        <v>59</v>
+        <v>3782</v>
       </c>
       <c r="V65" s="46">
-        <v>-27</v>
+        <v>-1654</v>
       </c>
       <c r="W65" s="48">
-        <v>79</v>
+        <v>4911</v>
       </c>
       <c r="X65" s="50">
-        <v>84</v>
+        <v>4915</v>
       </c>
       <c r="Y65" s="52">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="Z65" s="54">
-        <v>517</v>
+        <v>31715</v>
       </c>
       <c r="AA65" s="56">
-        <v>577</v>
+        <v>38982</v>
       </c>
       <c r="AB65" s="58">
-        <v>-60</v>
+        <v>-7267</v>
       </c>
       <c r="AC65" s="60">
-        <v>694</v>
+        <v>43262</v>
       </c>
       <c r="AD65" s="62">
-        <v>603</v>
+        <v>38109</v>
       </c>
       <c r="AE65" s="64">
-        <v>91</v>
+        <v>5153</v>
       </c>
       <c r="AF65" s="66">
-        <v>146</v>
+        <v>8876</v>
       </c>
       <c r="AG65" s="68">
-        <v>155</v>
+        <v>9614</v>
       </c>
       <c r="AH65" s="70">
-        <v>-9</v>
+        <v>-737</v>
       </c>
       <c r="AI65" s="72">
-        <v>35</v>
+        <v>2245</v>
       </c>
       <c r="AJ65" s="74">
-        <v>46</v>
+        <v>3097</v>
       </c>
       <c r="AK65" s="76">
-        <v>-11</v>
+        <v>-852</v>
       </c>
       <c r="AL65" s="78">
-        <v>11365</v>
+        <v>719113</v>
       </c>
     </row>
   </sheetData>
